--- a/R-ETL/interpolar.R.ETL/inst/extdata/Table_Description.xlsx
+++ b/R-ETL/interpolar.R.ETL/inst/extdata/Table_Description.xlsx
@@ -8,12 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\uc-phep\interpolar\R-ETL\interpolar.R.ETL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81703A8-9B76-4750-83F3-EB50DF30D84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67AB130-D12A-4EDA-BE7C-362A9274A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{E18E5677-AE42-4289-A07E-8C1A20A5F37B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" activeTab="1" xr2:uid="{E18E5677-AE42-4289-A07E-8C1A20A5F37B}"/>
   </bookViews>
   <sheets>
     <sheet name="table_description" sheetId="1" r:id="rId1"/>
+    <sheet name="table_description (2)" sheetId="12" r:id="rId2"/>
+    <sheet name="Encounter" sheetId="2" r:id="rId3"/>
+    <sheet name="Patient" sheetId="3" r:id="rId4"/>
+    <sheet name="Condition" sheetId="5" r:id="rId5"/>
+    <sheet name="Procedure" sheetId="6" r:id="rId6"/>
+    <sheet name="Observation (Laboratory)" sheetId="7" r:id="rId7"/>
+    <sheet name="Observation (Vitalsign)" sheetId="4" r:id="rId8"/>
+    <sheet name="Medication" sheetId="8" r:id="rId9"/>
+    <sheet name="MedicationAdministration" sheetId="9" r:id="rId10"/>
+    <sheet name="MedicationRequest" sheetId="10" r:id="rId11"/>
+    <sheet name="MedicationStatement" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1025">
   <si>
     <t>column_name</t>
   </si>
@@ -403,6 +414,2703 @@
   </si>
   <si>
     <t>time1</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta.source</t>
+  </si>
+  <si>
+    <t>meta.profile</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>identifier.type</t>
+  </si>
+  <si>
+    <t>identifier.system</t>
+  </si>
+  <si>
+    <t>identifier.value</t>
+  </si>
+  <si>
+    <t>identifier.assigner</t>
+  </si>
+  <si>
+    <t>identifier.assigner.identifier</t>
+  </si>
+  <si>
+    <t>identifier.assigner.identifier.type</t>
+  </si>
+  <si>
+    <t>identifier.assigner.identifier.system</t>
+  </si>
+  <si>
+    <t>identifier.assigner.identifier.value</t>
+  </si>
+  <si>
+    <t>identifier.use</t>
+  </si>
+  <si>
+    <t>identifier.assigner.display</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name.use</t>
+  </si>
+  <si>
+    <t>name.family</t>
+  </si>
+  <si>
+    <t>name.family.extension</t>
+  </si>
+  <si>
+    <t>name.given</t>
+  </si>
+  <si>
+    <t>name.prefix</t>
+  </si>
+  <si>
+    <t>name.prefix.extension</t>
+  </si>
+  <si>
+    <t>gender.extension</t>
+  </si>
+  <si>
+    <t>birthDate.extension</t>
+  </si>
+  <si>
+    <t>deceased[x]</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>address.extension</t>
+  </si>
+  <si>
+    <t>address.type</t>
+  </si>
+  <si>
+    <t>address.line</t>
+  </si>
+  <si>
+    <t>address.line.extension</t>
+  </si>
+  <si>
+    <t>address.city</t>
+  </si>
+  <si>
+    <t>address.city.extension</t>
+  </si>
+  <si>
+    <t>address.postalCode</t>
+  </si>
+  <si>
+    <t>address.country</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>link.other</t>
+  </si>
+  <si>
+    <t>link.type</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>extension.extension</t>
+  </si>
+  <si>
+    <t>identifier.type.coding</t>
+  </si>
+  <si>
+    <t>identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
+    <t>serviceType.coding</t>
+  </si>
+  <si>
+    <t>serviceType.coding.system</t>
+  </si>
+  <si>
+    <t>serviceType.coding.code</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>period.start</t>
+  </si>
+  <si>
+    <t>period.end</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>diagnosis.condition</t>
+  </si>
+  <si>
+    <t>diagnosis.use</t>
+  </si>
+  <si>
+    <t>diagnosis.rank</t>
+  </si>
+  <si>
+    <t>hospitalization</t>
+  </si>
+  <si>
+    <t>hospitalization.admitSource</t>
+  </si>
+  <si>
+    <t>hospitalization.dischargeDisposition</t>
+  </si>
+  <si>
+    <t>hospitalization.dischargeDisposition.extension</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>location.physicalType</t>
+  </si>
+  <si>
+    <t>location.location</t>
+  </si>
+  <si>
+    <t>location.location.identifier</t>
+  </si>
+  <si>
+    <t>location.location.display</t>
+  </si>
+  <si>
+    <t>serviceProvider</t>
+  </si>
+  <si>
+    <t>partOf</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>code.coding</t>
+  </si>
+  <si>
+    <t>code.coding.system</t>
+  </si>
+  <si>
+    <t>code.coding.code</t>
+  </si>
+  <si>
+    <t>effective[x]</t>
+  </si>
+  <si>
+    <t>value[x]</t>
+  </si>
+  <si>
+    <t>value[x].coding</t>
+  </si>
+  <si>
+    <t>value[x].coding.system</t>
+  </si>
+  <si>
+    <t>value[x].coding.code</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t>referenceRange</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>clinicalStatus</t>
+  </si>
+  <si>
+    <t>code.coding.version</t>
+  </si>
+  <si>
+    <t>bodySite.coding</t>
+  </si>
+  <si>
+    <t>bodySite.coding.system</t>
+  </si>
+  <si>
+    <t>bodySite.coding.code</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>onset[x]</t>
+  </si>
+  <si>
+    <t>onset[x].start</t>
+  </si>
+  <si>
+    <t>onset[x].start.extension</t>
+  </si>
+  <si>
+    <t>onset[x].end</t>
+  </si>
+  <si>
+    <t>onset[x].end.extension</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>category.coding</t>
+  </si>
+  <si>
+    <t>category.coding.system</t>
+  </si>
+  <si>
+    <t>category.coding.code</t>
+  </si>
+  <si>
+    <t>code.coding.extension</t>
+  </si>
+  <si>
+    <t>performed[x]</t>
+  </si>
+  <si>
+    <t>effective[x].extension</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>value[x].value</t>
+  </si>
+  <si>
+    <t>value[x].unit</t>
+  </si>
+  <si>
+    <t>value[x].system</t>
+  </si>
+  <si>
+    <t>value[x].code</t>
+  </si>
+  <si>
+    <t>dataAbsentReason</t>
+  </si>
+  <si>
+    <t>interpretation</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>specimen.reference</t>
+  </si>
+  <si>
+    <t>specimen.identifier</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>code.text</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>form.coding</t>
+  </si>
+  <si>
+    <t>form.coding.system</t>
+  </si>
+  <si>
+    <t>form.coding.code</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>ingredient.extension</t>
+  </si>
+  <si>
+    <t>ingredient.item[x]</t>
+  </si>
+  <si>
+    <t>ingredient.item[x].coding</t>
+  </si>
+  <si>
+    <t>ingredient.item[x].coding.system</t>
+  </si>
+  <si>
+    <t>ingredient.item[x].coding.code</t>
+  </si>
+  <si>
+    <t>ingredient.item[x].text</t>
+  </si>
+  <si>
+    <t>ingredient.strength</t>
+  </si>
+  <si>
+    <t>ingredient.strength.numerator</t>
+  </si>
+  <si>
+    <t>ingredient.strength.denominator</t>
+  </si>
+  <si>
+    <t>medication[x]</t>
+  </si>
+  <si>
+    <t>medication[x].coding</t>
+  </si>
+  <si>
+    <t>medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>medication[x].text</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t>reasonCode</t>
+  </si>
+  <si>
+    <t>reasonReference</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>dosage</t>
+  </si>
+  <si>
+    <t>dosage.text</t>
+  </si>
+  <si>
+    <t>dosage.site</t>
+  </si>
+  <si>
+    <t>dosage.site.coding</t>
+  </si>
+  <si>
+    <t>dosage.site.coding.system</t>
+  </si>
+  <si>
+    <t>dosage.site.coding.code</t>
+  </si>
+  <si>
+    <t>dosage.route</t>
+  </si>
+  <si>
+    <t>dosage.route.coding</t>
+  </si>
+  <si>
+    <t>dosage.route.coding.system</t>
+  </si>
+  <si>
+    <t>dosage.route.coding.code</t>
+  </si>
+  <si>
+    <t>dosage.dose</t>
+  </si>
+  <si>
+    <t>dosage.dose.value</t>
+  </si>
+  <si>
+    <t>dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>dosage.dose.system</t>
+  </si>
+  <si>
+    <t>dosage.dose.code</t>
+  </si>
+  <si>
+    <t>dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].numerator</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].numerator.value</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].numerator.system</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].numerator.code</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].denominator</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].denominator.value</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].denominator.system</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].denominator.code</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].value</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].unit</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].system</t>
+  </si>
+  <si>
+    <t>dosage.rate[x].code</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>doNotPerform</t>
+  </si>
+  <si>
+    <t>authoredOn</t>
+  </si>
+  <si>
+    <t>requester</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t>dosageInstruction</t>
+  </si>
+  <si>
+    <t>dosageInstruction.sequence</t>
+  </si>
+  <si>
+    <t>dosageInstruction.text</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.event</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].low</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].low.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].low.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].low.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].low.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].high</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].high.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].high.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].high.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].high.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].start</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.bounds[x].end</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.count</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>dosageInstruction.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>dosageInstruction.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>dosageInstruction.site</t>
+  </si>
+  <si>
+    <t>dosageInstruction.site.coding</t>
+  </si>
+  <si>
+    <t>dosageInstruction.site.coding.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.site.coding.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.route</t>
+  </si>
+  <si>
+    <t>dosageInstruction.route.coding</t>
+  </si>
+  <si>
+    <t>dosageInstruction.route.coding.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.route.coding.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].low</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].low.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].low.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].low.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].low.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].high</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].high.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].high.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].high.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.dose[x].high.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].numerator</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].numerator.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].numerator.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].numerator.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].denominator</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].denominator.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].denominator.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].denominator.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].low</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].low.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].low.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].low.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].low.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].high</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].high.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].high.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].high.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].high.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.doseAndRate.rate[x].code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.numerator</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.numerator.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.numerator.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.numerator.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.numerator.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.denominator</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.denominator.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.denominator.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.denominator.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerPeriod.denominator.code</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerAdministration.value</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerAdministration.unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerAdministration.system</t>
+  </si>
+  <si>
+    <t>dosageInstruction.maxDosePerAdministration.code</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t>substitution.allowed[x]</t>
+  </si>
+  <si>
+    <t>priorPrescription</t>
+  </si>
+  <si>
+    <t>detectedIssue</t>
+  </si>
+  <si>
+    <t>dateAsserted</t>
+  </si>
+  <si>
+    <t>informationSource</t>
+  </si>
+  <si>
+    <t>dosage.sequence</t>
+  </si>
+  <si>
+    <t>dosage.timing</t>
+  </si>
+  <si>
+    <t>dosage.timing.event</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].value</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].unit</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].system</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].code</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].low</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].low.value</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].low.unit</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].low.system</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].low.code</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].high</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].high.value</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].high.unit</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].high.system</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].high.code</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].start</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.bounds[x].end</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.count</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>dosage.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].low</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].low.value</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].low.unit</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].low.system</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].low.code</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].high</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].high.value</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].high.unit</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].high.system</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].high.code</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].value</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].unit</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].system</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.dose[x].code</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].numerator</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].numerator.value</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].numerator.system</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].numerator.code</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].denominator</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].denominator.value</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].denominator.system</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].denominator.code</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].low</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].low.value</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].low.unit</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].low.system</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].low.code</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].high</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].high.value</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].high.unit</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].high.system</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].high.code</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].value</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].unit</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].system</t>
+  </si>
+  <si>
+    <t>dosage.doseAndRate.rate[x].code</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.numerator</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.numerator.value</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.numerator.unit</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.numerator.system</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.numerator.code</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.denominator</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.denominator.value</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.denominator.unit</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.denominator.system</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerPeriod.denominator.code</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerAdministration.value</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerAdministration.unit</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerAdministration.system</t>
+  </si>
+  <si>
+    <t>dosage.maxDosePerAdministration.code</t>
+  </si>
+  <si>
+    <t>Condition.id</t>
+  </si>
+  <si>
+    <t>encounter.diagnosis.use (ValueSet: diagnosis-rule)</t>
+  </si>
+  <si>
+    <t>Condition.encounter</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus</t>
+  </si>
+  <si>
+    <t>Condition.severity</t>
+  </si>
+  <si>
+    <t>Condition.stage</t>
+  </si>
+  <si>
+    <t>Condition.category</t>
+  </si>
+  <si>
+    <t>Condition.code.text</t>
+  </si>
+  <si>
+    <t>Condition.note</t>
+  </si>
+  <si>
+    <t>Condition.onset</t>
+  </si>
+  <si>
+    <t>Condition.abatement</t>
+  </si>
+  <si>
+    <t>Condition.recordedDate</t>
+  </si>
+  <si>
+    <t>Condition.bodySite</t>
+  </si>
+  <si>
+    <t>encounter.diagnosis.condition</t>
+  </si>
+  <si>
+    <t>Procedure.outcome</t>
+  </si>
+  <si>
+    <t>Procedure.note</t>
+  </si>
+  <si>
+    <t>name/given</t>
+  </si>
+  <si>
+    <t>name/family</t>
+  </si>
+  <si>
+    <t>pat_name_given</t>
+  </si>
+  <si>
+    <t>pat_name_family</t>
+  </si>
+  <si>
+    <t>address/postalCode</t>
+  </si>
+  <si>
+    <t>pat_adress_postalCode</t>
+  </si>
+  <si>
+    <t>pat_identifier_value</t>
+  </si>
+  <si>
+    <t>pat_identifier_system</t>
+  </si>
+  <si>
+    <t>pat_birthdate</t>
+  </si>
+  <si>
+    <t>identifier/system</t>
+  </si>
+  <si>
+    <t>enc_identifier_value</t>
+  </si>
+  <si>
+    <t>enc_identifier_system</t>
+  </si>
+  <si>
+    <t>requester/reference</t>
+  </si>
+  <si>
+    <t>con_asserter</t>
+  </si>
+  <si>
+    <t>asserter/reference</t>
+  </si>
+  <si>
+    <t>obs_identifier_value</t>
+  </si>
+  <si>
+    <t>obs_identifier_system</t>
+  </si>
+  <si>
+    <t>hospitalization/admitSource/coding/system</t>
+  </si>
+  <si>
+    <t>hospitalization/dischargeDisposition/coding/code</t>
+  </si>
+  <si>
+    <t>hospitalization/dischargeDisposition/coding/system</t>
+  </si>
+  <si>
+    <t>enc_admitsource_code</t>
+  </si>
+  <si>
+    <t>enc_admitsource_system</t>
+  </si>
+  <si>
+    <t>enc_dischargedisposition_code</t>
+  </si>
+  <si>
+    <t>enc_dischargedisposition_system</t>
+  </si>
+  <si>
+    <t>obs_code_display</t>
+  </si>
+  <si>
+    <t>valueQuantity/comparator</t>
+  </si>
+  <si>
+    <t>obs_valuequantity_comparator</t>
+  </si>
+  <si>
+    <t>valueQuantity/value</t>
+  </si>
+  <si>
+    <t>valueQuantity/code</t>
+  </si>
+  <si>
+    <t>valueQuantity/unit</t>
+  </si>
+  <si>
+    <t>obs_valuequantity_system</t>
+  </si>
+  <si>
+    <t>valueQuantity/system</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept/coding/system</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept/coding/version</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept/coding/code</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept/coding/display</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept/text</t>
+  </si>
+  <si>
+    <t>referenceRange/low/value</t>
+  </si>
+  <si>
+    <t>referenceRange/low/unit</t>
+  </si>
+  <si>
+    <t>referenceRange/low/system</t>
+  </si>
+  <si>
+    <t>referenceRange/low/code</t>
+  </si>
+  <si>
+    <t>referenceRange/text</t>
+  </si>
+  <si>
+    <t>referenceRange/high/value</t>
+  </si>
+  <si>
+    <t>referenceRange/high/unit</t>
+  </si>
+  <si>
+    <t>referenceRange/high/system</t>
+  </si>
+  <si>
+    <t>referenceRange/high/code</t>
+  </si>
+  <si>
+    <t>referenceRange/age/low/value</t>
+  </si>
+  <si>
+    <t>referenceRange/age/low/unit</t>
+  </si>
+  <si>
+    <t>referenceRange/age/low/system</t>
+  </si>
+  <si>
+    <t>referenceRange/age/low/code</t>
+  </si>
+  <si>
+    <t>referenceRange/age/high/value</t>
+  </si>
+  <si>
+    <t>referenceRange/age/high/unit</t>
+  </si>
+  <si>
+    <t>referenceRange/age/high/system</t>
+  </si>
+  <si>
+    <t>referenceRange/age/high/code</t>
+  </si>
+  <si>
+    <t>appliesTo/coding/system</t>
+  </si>
+  <si>
+    <t>appliesTo/coding/version</t>
+  </si>
+  <si>
+    <t>appliesTo/coding/code</t>
+  </si>
+  <si>
+    <t>appliesTo/coding/display</t>
+  </si>
+  <si>
+    <t>appliesTo/text</t>
+  </si>
+  <si>
+    <t>note/time/value</t>
+  </si>
+  <si>
+    <t>note/text/value</t>
+  </si>
+  <si>
+    <t>DiagnosticReport</t>
+  </si>
+  <si>
+    <t>obs_identifier_use</t>
+  </si>
+  <si>
+    <t>identifier/use</t>
+  </si>
+  <si>
+    <t>obs_issued</t>
+  </si>
+  <si>
+    <t>obs_status</t>
+  </si>
+  <si>
+    <t>obs_valuecodeableconcept_text</t>
+  </si>
+  <si>
+    <t>obs_referencerange_text</t>
+  </si>
+  <si>
+    <t>obs_appliesto_text</t>
+  </si>
+  <si>
+    <t>obs_valuecodeableconcept_display</t>
+  </si>
+  <si>
+    <t>obs_appliesto_system</t>
+  </si>
+  <si>
+    <t>obs_appliesto_version</t>
+  </si>
+  <si>
+    <t>obs_appliesto_code</t>
+  </si>
+  <si>
+    <t>obs_appliesto_display</t>
+  </si>
+  <si>
+    <t>obs_valuecodeableconcept_code</t>
+  </si>
+  <si>
+    <t>obs_valuecodeableconcept_version</t>
+  </si>
+  <si>
+    <t>obs_valuecodeableconcept_system</t>
+  </si>
+  <si>
+    <t>obs_referencerange_low_value</t>
+  </si>
+  <si>
+    <t>obs_referencerange_low_unit</t>
+  </si>
+  <si>
+    <t>obs_referencerange_low_system</t>
+  </si>
+  <si>
+    <t>obs_referencerange_low_code</t>
+  </si>
+  <si>
+    <t>obs_referencerange_height_value</t>
+  </si>
+  <si>
+    <t>obs_referencerange_height_unit</t>
+  </si>
+  <si>
+    <t>obs_referencerange_height_system</t>
+  </si>
+  <si>
+    <t>obs_referencerange_height_code</t>
+  </si>
+  <si>
+    <t>obs_referencerange_age_low_value</t>
+  </si>
+  <si>
+    <t>obs_referencerange_age_low_unit</t>
+  </si>
+  <si>
+    <t>obs_referencerange_age_low_system</t>
+  </si>
+  <si>
+    <t>obs_referencerange_age_low_code</t>
+  </si>
+  <si>
+    <t>obs_referencerange_age_heigth_value</t>
+  </si>
+  <si>
+    <t>obs_referencerange_age_heigth_unit</t>
+  </si>
+  <si>
+    <t>obs_referencerange_age_heigth_system</t>
+  </si>
+  <si>
+    <t>obs_referencerange_age_heigth_code</t>
+  </si>
+  <si>
+    <t>obs_note_time</t>
+  </si>
+  <si>
+    <t>obs_note_text</t>
+  </si>
+  <si>
+    <t>obs_text</t>
+  </si>
+  <si>
+    <t>con_text</t>
+  </si>
+  <si>
+    <t>obs_effectivedatetime</t>
+  </si>
+  <si>
+    <t>diagrep_enc_id</t>
+  </si>
+  <si>
+    <t>diagrep_code_system</t>
+  </si>
+  <si>
+    <t>diagrep_code_code</t>
+  </si>
+  <si>
+    <t>diagrep_code_display</t>
+  </si>
+  <si>
+    <t>diagrep_text</t>
+  </si>
+  <si>
+    <t>diagrep_effectivedatetime</t>
+  </si>
+  <si>
+    <t>diagrep_pat_id</t>
+  </si>
+  <si>
+    <t>obs_id</t>
+  </si>
+  <si>
+    <t>diagrep_id</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>diagrep_conclusion</t>
+  </si>
+  <si>
+    <t>performer/reference</t>
+  </si>
+  <si>
+    <t>diagrep_performer_id</t>
+  </si>
+  <si>
+    <t>diagrep_result_id</t>
+  </si>
+  <si>
+    <t>result/reference</t>
+  </si>
+  <si>
+    <t>diagrep_issued</t>
+  </si>
+  <si>
+    <t>diagrep_status</t>
+  </si>
+  <si>
+    <t>conclusionCode/coding/system</t>
+  </si>
+  <si>
+    <t>conclusionCode/coding/version</t>
+  </si>
+  <si>
+    <t>conclusionCode/coding/code</t>
+  </si>
+  <si>
+    <t>conclusionCode/coding/display</t>
+  </si>
+  <si>
+    <t>diagrep_conclusionCode_system</t>
+  </si>
+  <si>
+    <t>diagrep_conclusionCode_version</t>
+  </si>
+  <si>
+    <t>diagrep_conclusionCode_code</t>
+  </si>
+  <si>
+    <t>diagrep_conclusionCode_display</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>resultsInterpreter/reference</t>
+  </si>
+  <si>
+    <t>diagrep_resultsinterpreter_id</t>
+  </si>
+  <si>
+    <t>servreq_id</t>
+  </si>
+  <si>
+    <t>servreq_pat_id</t>
+  </si>
+  <si>
+    <t>servreq_enc_id</t>
+  </si>
+  <si>
+    <t>servreq_code_system</t>
+  </si>
+  <si>
+    <t>servreq_code_code</t>
+  </si>
+  <si>
+    <t>servreq_code_display</t>
+  </si>
+  <si>
+    <t>servreq_authoredon</t>
+  </si>
+  <si>
+    <t>servreq_requester_id</t>
+  </si>
+  <si>
+    <t>locationCode/coding/system</t>
+  </si>
+  <si>
+    <t>locationCode/coding/version</t>
+  </si>
+  <si>
+    <t>locationCode/coding/code</t>
+  </si>
+  <si>
+    <t>locationCode/coding/display</t>
+  </si>
+  <si>
+    <t>locationCode/text</t>
+  </si>
+  <si>
+    <t>diagrep_conclusionCode_text</t>
+  </si>
+  <si>
+    <t>conclusionCode/text</t>
+  </si>
+  <si>
+    <t>servreq_code_text</t>
+  </si>
+  <si>
+    <t>servreq_locationcode_system</t>
+  </si>
+  <si>
+    <t>servreq_locationcode_version</t>
+  </si>
+  <si>
+    <t>servreq_locationcode_code</t>
+  </si>
+  <si>
+    <t>servreq_locationcode_display</t>
+  </si>
+  <si>
+    <t>servreq_locationcode_text</t>
+  </si>
+  <si>
+    <t>locationReference/reference</t>
+  </si>
+  <si>
+    <t>servreq_locationreference_id</t>
+  </si>
+  <si>
+    <t>med_status</t>
+  </si>
+  <si>
+    <t>med_code_code</t>
+  </si>
+  <si>
+    <t>med_code_display</t>
+  </si>
+  <si>
+    <t>med_code_system</t>
+  </si>
+  <si>
+    <t>med_code_version</t>
+  </si>
+  <si>
+    <t>med_code_text</t>
+  </si>
+  <si>
+    <t>med_form_display</t>
+  </si>
+  <si>
+    <t>form/coding/display</t>
+  </si>
+  <si>
+    <t>med_form_system</t>
+  </si>
+  <si>
+    <t>form/coding/system</t>
+  </si>
+  <si>
+    <t>med_form_version</t>
+  </si>
+  <si>
+    <t>form/coding/version</t>
+  </si>
+  <si>
+    <t>med_form_text</t>
+  </si>
+  <si>
+    <t>form/text</t>
+  </si>
+  <si>
+    <t>med_form_code</t>
+  </si>
+  <si>
+    <t>form/coding/code</t>
+  </si>
+  <si>
+    <t>med_amount_numerator_value</t>
+  </si>
+  <si>
+    <t>med_amount_numerator_code</t>
+  </si>
+  <si>
+    <t>med_amount_numerator_unit</t>
+  </si>
+  <si>
+    <t>med_amount_denominator_value</t>
+  </si>
+  <si>
+    <t>med_amount_denominator_code</t>
+  </si>
+  <si>
+    <t>med_amount_denominator_unit</t>
+  </si>
+  <si>
+    <t>med_amount_numerator_system</t>
+  </si>
+  <si>
+    <t>ingredient/strength/numerator/system</t>
+  </si>
+  <si>
+    <t>med_amount_numerator_comparator</t>
+  </si>
+  <si>
+    <t>ingredient/strength/numerator/comparator</t>
+  </si>
+  <si>
+    <t>med_amount_denominator_comparator</t>
+  </si>
+  <si>
+    <t>ingredient/strength/denominator/comparator</t>
+  </si>
+  <si>
+    <t>med_amount_denominator_system</t>
+  </si>
+  <si>
+    <t>ingredient/strength/denominator/system</t>
+  </si>
+  <si>
+    <t>amount/numerator/value</t>
+  </si>
+  <si>
+    <t>amount/numerator/comparator</t>
+  </si>
+  <si>
+    <t>amount/numerator/unit</t>
+  </si>
+  <si>
+    <t>amount/numerator/system</t>
+  </si>
+  <si>
+    <t>amount/numerator/code</t>
+  </si>
+  <si>
+    <t>amount/denominator/value</t>
+  </si>
+  <si>
+    <t>amount/denominator/comparator</t>
+  </si>
+  <si>
+    <t>amount/denominator/unit</t>
+  </si>
+  <si>
+    <t>amount/denominator/system</t>
+  </si>
+  <si>
+    <t>amount/denominator/code</t>
+  </si>
+  <si>
+    <t>med_ingredient_numerator_comparator</t>
+  </si>
+  <si>
+    <t>med_ingredient_numerator_system</t>
+  </si>
+  <si>
+    <t>med_ingredient_denominator_comparator</t>
+  </si>
+  <si>
+    <t>med_ingredient_denominator_system</t>
+  </si>
+  <si>
+    <t>ingredient/itemCodeableConcept/coding/system</t>
+  </si>
+  <si>
+    <t>ingredient/itemCodeableConcept/coding/code</t>
+  </si>
+  <si>
+    <t>ingredient/itemCodeableConcept/coding/version</t>
+  </si>
+  <si>
+    <t>ingredient/itemCodeableConcept/coding/display</t>
+  </si>
+  <si>
+    <t>ingredient/itemCodeableConcept/text</t>
+  </si>
+  <si>
+    <t>med_ingredient_itemcodeableconcept_system</t>
+  </si>
+  <si>
+    <t>med_ingredient_itemcodeableconcept_version</t>
+  </si>
+  <si>
+    <t>med_ingredient_itemcodeableconcept_code</t>
+  </si>
+  <si>
+    <t>med_ingredient_itemcodeableconcept_display</t>
+  </si>
+  <si>
+    <t>med_ingredient_itemcodeableconcept_text</t>
+  </si>
+  <si>
+    <t>ingredient/itemReference/reference</t>
+  </si>
+  <si>
+    <t>med_ingredient_itemreference_id</t>
+  </si>
+  <si>
+    <t>ingredient/isActive</t>
+  </si>
+  <si>
+    <t>med_ingredient_isactive</t>
+  </si>
+  <si>
+    <t>medreq_status</t>
+  </si>
+  <si>
+    <t>statusReason/coding/code</t>
+  </si>
+  <si>
+    <t>statusReason/coding/display</t>
+  </si>
+  <si>
+    <t>statusReason/coding/system</t>
+  </si>
+  <si>
+    <t>statusReason/coding/version</t>
+  </si>
+  <si>
+    <t>statusReason/text</t>
+  </si>
+  <si>
+    <t>medreq_statusreason_code</t>
+  </si>
+  <si>
+    <t>medreq_statusreason_display</t>
+  </si>
+  <si>
+    <t>medreq_statusreason_system</t>
+  </si>
+  <si>
+    <t>medreq_statusreason_version</t>
+  </si>
+  <si>
+    <t>medreq_statusreason_text</t>
+  </si>
+  <si>
+    <t>intend</t>
+  </si>
+  <si>
+    <t>medreq_intend</t>
+  </si>
+  <si>
+    <t>medreq_category_code</t>
+  </si>
+  <si>
+    <t>medreq_category_display</t>
+  </si>
+  <si>
+    <t>medreq_category_system</t>
+  </si>
+  <si>
+    <t>medreq_category_version</t>
+  </si>
+  <si>
+    <t>medreq_category_text</t>
+  </si>
+  <si>
+    <t>category/coding/code</t>
+  </si>
+  <si>
+    <t>category/coding/display</t>
+  </si>
+  <si>
+    <t>category/coding/system</t>
+  </si>
+  <si>
+    <t>category/coding/version</t>
+  </si>
+  <si>
+    <t>category/text</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>medreq_priority</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept/coding/system</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept/coding/version</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept/coding/code</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept/coding/display</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept/text</t>
+  </si>
+  <si>
+    <t>medreq_medicationcodeableconcept_system</t>
+  </si>
+  <si>
+    <t>medreq_medicationcodeableconcept_version</t>
+  </si>
+  <si>
+    <t>medreq_medicationcodeableconcept_code</t>
+  </si>
+  <si>
+    <t>medreq_medicationcodeableconcept_display</t>
+  </si>
+  <si>
+    <t>medreq_medicationcodeableconcept_text</t>
+  </si>
+  <si>
+    <t>medreq_authoredOn</t>
+  </si>
+  <si>
+    <t>medreq_requester_id</t>
+  </si>
+  <si>
+    <t>medreq_reasoncode_code</t>
+  </si>
+  <si>
+    <t>medreq_reasoncode_display</t>
+  </si>
+  <si>
+    <t>medreq_reasoncode_system</t>
+  </si>
+  <si>
+    <t>medreq_reasoncode_version</t>
+  </si>
+  <si>
+    <t>medreq_reasoncode_text</t>
+  </si>
+  <si>
+    <t>reasonCode/coding/code</t>
+  </si>
+  <si>
+    <t>reasonCode/coding/display</t>
+  </si>
+  <si>
+    <t>reasonCode/coding/system</t>
+  </si>
+  <si>
+    <t>reasonCode/coding/version</t>
+  </si>
+  <si>
+    <t>reasonCode/text</t>
+  </si>
+  <si>
+    <t>reasonReference/reference</t>
+  </si>
+  <si>
+    <t>medreq_reasonreference_id</t>
+  </si>
+  <si>
+    <t>medreq_basedon_id</t>
+  </si>
+  <si>
+    <t>basedOn/reference</t>
+  </si>
+  <si>
+    <t>note/text</t>
+  </si>
+  <si>
+    <t>note/time</t>
+  </si>
+  <si>
+    <t>medreq_note_text</t>
+  </si>
+  <si>
+    <t>medreq_note_time</t>
+  </si>
+  <si>
+    <t>dosageInstruction/sequence</t>
+  </si>
+  <si>
+    <t>dosageInstruction/text</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/event</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/count</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/countMax</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/duration</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/durationMax</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/durationUnit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/frequency</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/frequencyMax</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/period</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/periodMax</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/periodUnit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/dayOfWeek</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/timeOfDay</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/when</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/offset</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/code/coding/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/code/coding/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/code/coding/version</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/code/coding/display</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/code/text</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsDuration/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsDuration/comparator</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsDuration/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsDuration/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsDuration/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsRange/low/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsRange/low/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsRange/low/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsRange/low/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsRange/high/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsRange/high/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsRange/high/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsRange/high/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsPeriod/start</t>
+  </si>
+  <si>
+    <t>dosageInstruction/timing/repeat/boundsPeriod/end</t>
+  </si>
+  <si>
+    <t>dosageInstruction/asNeededBoolean</t>
+  </si>
+  <si>
+    <t>dosageInstruction/asNeededCodeableConcept/coding/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/asNeededCodeableConcept/coding/version</t>
+  </si>
+  <si>
+    <t>dosageInstruction/asNeededCodeableConcept/coding/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/asNeededCodeableConcept/coding/display</t>
+  </si>
+  <si>
+    <t>dosageInstruction/asNeededCodeableConcept/text</t>
+  </si>
+  <si>
+    <t>dosageInstruction/site/coding/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/site/coding/version</t>
+  </si>
+  <si>
+    <t>dosageInstruction/site/coding/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/site/coding/display</t>
+  </si>
+  <si>
+    <t>dosageInstruction/site/text</t>
+  </si>
+  <si>
+    <t>dosageInstruction/route/coding/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/route/coding/version</t>
+  </si>
+  <si>
+    <t>dosageInstruction/route/coding/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/route/coding/display</t>
+  </si>
+  <si>
+    <t>dosageInstruction/route/text</t>
+  </si>
+  <si>
+    <t>dosageInstruction/method/coding/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/method/coding/version</t>
+  </si>
+  <si>
+    <t>dosageInstruction/method/coding/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/method/coding/display</t>
+  </si>
+  <si>
+    <t>dosageInstruction/method/text</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/type/coding/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/type/coding/version</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/type/coding/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/type/coding/display</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/type/text</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseRange/low/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseRange/low/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseRange/low/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseRange/low/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseRange/high/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseRange/high/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseRange/high/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseRange/high/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseQuantity/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseQuantity/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseQuantity/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/doseQuantity/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/numerator/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/numerator/comparator</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/numerator/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/numerator/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/numerator/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/denominator/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/denominator/comparator</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/denominator/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/denominator/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio/denominator/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRange/low/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRange/low/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRange/low/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRange/low/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRange/high/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRange/high/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRange/high/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRange/high/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateQuantity/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateQuantity/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateQuantity/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateQuantity/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/numerator/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/numerator/comparator</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/numerator/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/numerator/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/numerator/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/denominator/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/denominator/comparator</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/denominator/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/denominator/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerPeriod/denominator/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerAdministration/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerAdministration/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerAdministration/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerAdministration/code</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerLifetime/value</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerLifetime/unit</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerLifetime/system</t>
+  </si>
+  <si>
+    <t>dosageInstruction/maxDosePerLifetime/code</t>
+  </si>
+  <si>
+    <t>medreq_substitution_reason_system</t>
+  </si>
+  <si>
+    <t>medreq_substitution_reason_version</t>
+  </si>
+  <si>
+    <t>medreq_substitution_reason_code</t>
+  </si>
+  <si>
+    <t>medreq_substitution_reason_display</t>
+  </si>
+  <si>
+    <t>medreq_substitution_reason_text</t>
+  </si>
+  <si>
+    <t>substitution/reason/coding/system</t>
+  </si>
+  <si>
+    <t>substitution/reason/coding/version</t>
+  </si>
+  <si>
+    <t>substitution/reason/coding/code</t>
+  </si>
+  <si>
+    <t>substitution/reason/coding/display</t>
+  </si>
+  <si>
+    <t>substitution/reason/text</t>
+  </si>
+  <si>
+    <t>priorPrescription/reference</t>
+  </si>
+  <si>
+    <t>medreq_priorprescription_id</t>
+  </si>
+  <si>
+    <t>detectedIssue/reference</t>
+  </si>
+  <si>
+    <t>medreq_detectedissue_id</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_sequence</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_text</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_event</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsduration_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsduration_comparator</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsduration_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsduration_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsduration_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsrange_low_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsrange_low_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsrange_low_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsrange_low_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsrange_height_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsrange_height_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsrange_height_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsrange_height_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsperiod_start</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_boundsperiod_end</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_count</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_countmax</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_duration</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_durationmax</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_durationunit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_frequency</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_frequencymax</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_period</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_periodmax</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_periodunit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_dayofweek</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_timeofday</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_when</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_repeat_offset</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_code_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_code_version</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_code_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_code_display</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_timing_code_text</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_asneededboolean</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_asneededcodeableconcept_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_asneededcodeableconcept_version</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_asneededcodeableconcept_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_asneededcodeableconcept_display</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_asneededcodeableconcept_text</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_site_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_site_version</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_site_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_site_display</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_site_text</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_route_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_route_version</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_route_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_route_display</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_route_text</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_method_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_method_version</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_method_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_method_display</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_method_text</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_type_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_type_version</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_type_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_type_display</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_type_text</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_doserange_low_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_doserange_low_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_doserange_low_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_doserange_low_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_doserange_height_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_doserange_height_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_doserange_height_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_doserange_height_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_dosequantity_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_dosequantity_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_dosequantity_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_dosequantity_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_numerator_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_numerator_comparator</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_numerator_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_numerator_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_numerator_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_denominator_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_denominator_comparator</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_denominator_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_denominator_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_rateratio_denominator_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_raterange_low_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_raterange_low_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_raterange_low_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_raterange_low_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_raterange_height_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_raterange_height_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_raterange_height_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_raterange_height_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_ratequantity_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_ratequantity_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_ratequantity_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_doseandrate_ratequantity_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_numerator_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_numerator_comparator</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_numerator_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_numerator_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_numerator_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_denominator_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_denominator_comparator</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_denominator_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_denominator_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperperiod_denominator_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperadministration_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperadministration_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperadministration_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperadministration_code</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperlifetime_value</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperlifetime_unit</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperlifetime_system</t>
+  </si>
+  <si>
+    <t>medreq_doseinstruc_maxdoseperlifetime_code</t>
+  </si>
+  <si>
+    <t>supportingInformation/reference</t>
+  </si>
+  <si>
+    <t>medreq_supportinginformation_id</t>
+  </si>
+  <si>
+    <t>medreq_reportedboolean</t>
+  </si>
+  <si>
+    <t>reportedBoolean</t>
+  </si>
+  <si>
+    <t>reportedReference/reference</t>
+  </si>
+  <si>
+    <t>medreq_reportedreference_id</t>
   </si>
 </sst>
 </file>
@@ -450,10 +3158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -770,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370935F3-1EE9-407B-BFBE-638923BBBC8E}">
   <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,4 +5541,5528 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D29D3BF-7945-48A7-B4AA-47C9FFD568C1}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F248DF7-47C6-402A-906A-F0FAA219833F}">
+  <dimension ref="A1:A125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A60EF9-8BDD-404E-A8FE-67FB0B3B509E}">
+  <dimension ref="A1:A126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C81D82-401C-4A00-A387-FC66EC8E61F1}">
+  <dimension ref="A1:H395"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G303" sqref="G303:G319"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="4"/>
+    <col min="7" max="7" width="14.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="69.85546875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B285" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B292" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B294" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B295" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G303" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G304" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G305" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G306" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G307" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G308" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G309" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G310" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G311" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B313" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B314" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B315" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B316" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B317" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="H317" s="5"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B318" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B319" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B320" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B327" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B329" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B330" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B332" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B333" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B334" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B335" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B336" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B337" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B339" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B340" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B341" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B342" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B343" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B344" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B347" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B348" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B349" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B350" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B352" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B353" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B354" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B355" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B356" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B357" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B358" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B361" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B362" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B363" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B364" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B365" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B366" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B367" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B368" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B369" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B370" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B371" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B372" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B373" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B374" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B375" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B376" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B377" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B378" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B379" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B382" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B383" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B384" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B385" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B386" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B387" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B388" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B389" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B390" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B391" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B392" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B393" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B394" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B395" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1B32F-D4FF-492F-A987-B37C7BE02E60}">
+  <dimension ref="A2:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF3CF83-79FE-4F58-B37D-A96FB6E98F35}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6062CEA4-64E9-47B1-A694-094E7C3F6193}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC3BB95-4FFE-4B53-8DF1-D69287ECE4F4}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B4962F-FAB4-4715-BF20-56596F3257A8}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335CD3F9-83B2-4C8B-9E75-ADDBA2CE756B}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17AB61C-1840-4DD4-A1D5-704875D476DD}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/R-ETL/interpolar.R.ETL/inst/extdata/Table_Description.xlsx
+++ b/R-ETL/interpolar.R.ETL/inst/extdata/Table_Description.xlsx
@@ -8,24 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\D\Eigene Projekte\smith\uc-phep\interpolar\R-ETL\interpolar.R.ETL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0DC74-A578-42A6-9258-00DAB8EB9FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0902AEC6-C4D1-4ADB-AC14-6D30545B3AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23400" activeTab="2" xr2:uid="{E18E5677-AE42-4289-A07E-8C1A20A5F37B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" activeTab="2" xr2:uid="{E18E5677-AE42-4289-A07E-8C1A20A5F37B}"/>
   </bookViews>
   <sheets>
-    <sheet name="table_description" sheetId="1" r:id="rId1"/>
-    <sheet name="Ward_Patients" sheetId="13" r:id="rId2"/>
-    <sheet name="table_description (2)" sheetId="12" r:id="rId3"/>
-    <sheet name="Encounter" sheetId="2" r:id="rId4"/>
-    <sheet name="Patient" sheetId="3" r:id="rId5"/>
-    <sheet name="Condition" sheetId="5" r:id="rId6"/>
-    <sheet name="Procedure" sheetId="6" r:id="rId7"/>
-    <sheet name="Observation (Laboratory)" sheetId="7" r:id="rId8"/>
-    <sheet name="Observation (Vitalsign)" sheetId="4" r:id="rId9"/>
-    <sheet name="Medication" sheetId="8" r:id="rId10"/>
-    <sheet name="MedicationAdministration" sheetId="9" r:id="rId11"/>
-    <sheet name="MedicationRequest" sheetId="10" r:id="rId12"/>
-    <sheet name="MedicationStatement" sheetId="11" r:id="rId13"/>
+    <sheet name="table_description_old" sheetId="1" r:id="rId1"/>
+    <sheet name="Ward_Patients" sheetId="13" state="hidden" r:id="rId2"/>
+    <sheet name="table_description" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="944">
   <si>
     <t>column_name</t>
   </si>
@@ -414,1113 +404,18 @@
     <t>time1</t>
   </si>
   <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>meta.source</t>
-  </si>
-  <si>
-    <t>meta.profile</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>identifier.type</t>
-  </si>
-  <si>
-    <t>identifier.system</t>
-  </si>
-  <si>
-    <t>identifier.value</t>
-  </si>
-  <si>
-    <t>identifier.assigner</t>
-  </si>
-  <si>
-    <t>identifier.assigner.identifier</t>
-  </si>
-  <si>
-    <t>identifier.assigner.identifier.type</t>
-  </si>
-  <si>
-    <t>identifier.assigner.identifier.system</t>
-  </si>
-  <si>
-    <t>identifier.assigner.identifier.value</t>
-  </si>
-  <si>
-    <t>identifier.use</t>
-  </si>
-  <si>
-    <t>identifier.assigner.display</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>name.use</t>
-  </si>
-  <si>
-    <t>name.family</t>
-  </si>
-  <si>
-    <t>name.family.extension</t>
-  </si>
-  <si>
-    <t>name.given</t>
-  </si>
-  <si>
-    <t>name.prefix</t>
-  </si>
-  <si>
-    <t>name.prefix.extension</t>
-  </si>
-  <si>
-    <t>gender.extension</t>
-  </si>
-  <si>
-    <t>birthDate.extension</t>
-  </si>
-  <si>
-    <t>deceased[x]</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>address.extension</t>
-  </si>
-  <si>
-    <t>address.type</t>
-  </si>
-  <si>
-    <t>address.line</t>
-  </si>
-  <si>
-    <t>address.line.extension</t>
-  </si>
-  <si>
-    <t>address.city</t>
-  </si>
-  <si>
-    <t>address.city.extension</t>
-  </si>
-  <si>
-    <t>address.postalCode</t>
-  </si>
-  <si>
-    <t>address.country</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>link.other</t>
-  </si>
-  <si>
-    <t>link.type</t>
-  </si>
-  <si>
-    <t>extension</t>
-  </si>
-  <si>
-    <t>extension.extension</t>
-  </si>
-  <si>
-    <t>identifier.type.coding</t>
-  </si>
-  <si>
-    <t>identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>identifier.type.coding.code</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>serviceType</t>
-  </si>
-  <si>
-    <t>serviceType.coding</t>
-  </si>
-  <si>
-    <t>serviceType.coding.system</t>
-  </si>
-  <si>
-    <t>serviceType.coding.code</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>period.start</t>
-  </si>
-  <si>
-    <t>period.end</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>diagnosis.condition</t>
-  </si>
-  <si>
-    <t>diagnosis.use</t>
-  </si>
-  <si>
-    <t>diagnosis.rank</t>
-  </si>
-  <si>
-    <t>hospitalization</t>
-  </si>
-  <si>
-    <t>hospitalization.admitSource</t>
-  </si>
-  <si>
-    <t>hospitalization.dischargeDisposition</t>
-  </si>
-  <si>
-    <t>hospitalization.dischargeDisposition.extension</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>location.physicalType</t>
-  </si>
-  <si>
-    <t>location.location</t>
-  </si>
-  <si>
-    <t>location.location.identifier</t>
-  </si>
-  <si>
-    <t>location.location.display</t>
-  </si>
-  <si>
-    <t>serviceProvider</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>code.coding</t>
-  </si>
-  <si>
-    <t>code.coding.system</t>
-  </si>
-  <si>
-    <t>code.coding.code</t>
-  </si>
-  <si>
-    <t>effective[x]</t>
-  </si>
-  <si>
-    <t>value[x]</t>
-  </si>
-  <si>
-    <t>value[x].coding</t>
-  </si>
-  <si>
-    <t>value[x].coding.system</t>
-  </si>
-  <si>
-    <t>value[x].coding.code</t>
-  </si>
-  <si>
-    <t>bodySite</t>
-  </si>
-  <si>
-    <t>specimen</t>
-  </si>
-  <si>
-    <t>referenceRange</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>clinicalStatus</t>
-  </si>
-  <si>
-    <t>code.coding.version</t>
-  </si>
-  <si>
-    <t>bodySite.coding</t>
-  </si>
-  <si>
-    <t>bodySite.coding.system</t>
-  </si>
-  <si>
-    <t>bodySite.coding.code</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t>onset[x]</t>
-  </si>
-  <si>
-    <t>onset[x].start</t>
-  </si>
-  <si>
-    <t>onset[x].start.extension</t>
-  </si>
-  <si>
-    <t>onset[x].end</t>
-  </si>
-  <si>
-    <t>onset[x].end.extension</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>category.coding</t>
-  </si>
-  <si>
-    <t>category.coding.system</t>
-  </si>
-  <si>
-    <t>category.coding.code</t>
-  </si>
-  <si>
-    <t>code.coding.extension</t>
-  </si>
-  <si>
-    <t>performed[x]</t>
-  </si>
-  <si>
-    <t>effective[x].extension</t>
-  </si>
-  <si>
     <t>issued</t>
   </si>
   <si>
-    <t>value[x].value</t>
-  </si>
-  <si>
-    <t>value[x].unit</t>
-  </si>
-  <si>
-    <t>value[x].system</t>
-  </si>
-  <si>
-    <t>value[x].code</t>
-  </si>
-  <si>
-    <t>dataAbsentReason</t>
-  </si>
-  <si>
-    <t>interpretation</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>specimen.reference</t>
-  </si>
-  <si>
-    <t>specimen.identifier</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>code.text</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>form.coding</t>
-  </si>
-  <si>
-    <t>form.coding.system</t>
-  </si>
-  <si>
-    <t>form.coding.code</t>
-  </si>
-  <si>
-    <t>ingredient</t>
-  </si>
-  <si>
-    <t>ingredient.extension</t>
-  </si>
-  <si>
-    <t>ingredient.item[x]</t>
-  </si>
-  <si>
-    <t>ingredient.item[x].coding</t>
-  </si>
-  <si>
-    <t>ingredient.item[x].coding.system</t>
-  </si>
-  <si>
-    <t>ingredient.item[x].coding.code</t>
-  </si>
-  <si>
-    <t>ingredient.item[x].text</t>
-  </si>
-  <si>
-    <t>ingredient.strength</t>
-  </si>
-  <si>
-    <t>ingredient.strength.numerator</t>
-  </si>
-  <si>
-    <t>ingredient.strength.denominator</t>
-  </si>
-  <si>
-    <t>medication[x]</t>
-  </si>
-  <si>
-    <t>medication[x].coding</t>
-  </si>
-  <si>
-    <t>medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>medication[x].text</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t>reasonCode</t>
-  </si>
-  <si>
-    <t>reasonReference</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>dosage</t>
-  </si>
-  <si>
-    <t>dosage.text</t>
-  </si>
-  <si>
-    <t>dosage.site</t>
-  </si>
-  <si>
-    <t>dosage.site.coding</t>
-  </si>
-  <si>
-    <t>dosage.site.coding.system</t>
-  </si>
-  <si>
-    <t>dosage.site.coding.code</t>
-  </si>
-  <si>
-    <t>dosage.route</t>
-  </si>
-  <si>
-    <t>dosage.route.coding</t>
-  </si>
-  <si>
-    <t>dosage.route.coding.system</t>
-  </si>
-  <si>
-    <t>dosage.route.coding.code</t>
-  </si>
-  <si>
-    <t>dosage.dose</t>
-  </si>
-  <si>
-    <t>dosage.dose.value</t>
-  </si>
-  <si>
-    <t>dosage.dose.unit</t>
-  </si>
-  <si>
-    <t>dosage.dose.system</t>
-  </si>
-  <si>
-    <t>dosage.dose.code</t>
-  </si>
-  <si>
-    <t>dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].numerator</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].numerator.value</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].numerator.unit</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].numerator.system</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].numerator.code</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].denominator</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].denominator.value</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].denominator.unit</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].denominator.system</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].denominator.code</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].value</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].unit</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].system</t>
-  </si>
-  <si>
-    <t>dosage.rate[x].code</t>
-  </si>
-  <si>
-    <t>intent</t>
-  </si>
-  <si>
-    <t>doNotPerform</t>
-  </si>
-  <si>
     <t>authoredOn</t>
   </si>
   <si>
-    <t>requester</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t>dosageInstruction</t>
-  </si>
-  <si>
-    <t>dosageInstruction.sequence</t>
-  </si>
-  <si>
-    <t>dosageInstruction.text</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.event</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x]</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].low</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].low.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].low.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].low.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].low.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].high</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].high.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].high.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].high.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].high.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].start</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.bounds[x].end</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.count</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.period</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.when</t>
-  </si>
-  <si>
-    <t>dosageInstruction.timing.repeat.offset</t>
-  </si>
-  <si>
-    <t>dosageInstruction.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>dosageInstruction.site</t>
-  </si>
-  <si>
-    <t>dosageInstruction.site.coding</t>
-  </si>
-  <si>
-    <t>dosageInstruction.site.coding.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.site.coding.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.route</t>
-  </si>
-  <si>
-    <t>dosageInstruction.route.coding</t>
-  </si>
-  <si>
-    <t>dosageInstruction.route.coding.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.route.coding.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].low</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].low.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].low.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].low.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].low.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].high</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].high.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].high.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].high.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.dose[x].high.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x]</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].numerator</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].numerator.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].numerator.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].numerator.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].numerator.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].denominator</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].denominator.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].denominator.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].denominator.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].denominator.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].low</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].low.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].low.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].low.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].low.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].high</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].high.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].high.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].high.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].high.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.doseAndRate.rate[x].code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.numerator</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.numerator.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.numerator.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.numerator.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.numerator.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.denominator</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.denominator.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.denominator.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.denominator.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerPeriod.denominator.code</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerAdministration.value</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerAdministration.unit</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerAdministration.system</t>
-  </si>
-  <si>
-    <t>dosageInstruction.maxDosePerAdministration.code</t>
-  </si>
-  <si>
-    <t>substitution</t>
-  </si>
-  <si>
-    <t>substitution.allowed[x]</t>
-  </si>
-  <si>
-    <t>priorPrescription</t>
-  </si>
-  <si>
-    <t>detectedIssue</t>
-  </si>
-  <si>
-    <t>dateAsserted</t>
-  </si>
-  <si>
-    <t>informationSource</t>
-  </si>
-  <si>
-    <t>dosage.sequence</t>
-  </si>
-  <si>
-    <t>dosage.timing</t>
-  </si>
-  <si>
-    <t>dosage.timing.event</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x]</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].value</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].unit</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].system</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].code</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].low</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].low.value</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].low.unit</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].low.system</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].low.code</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].high</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].high.value</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].high.unit</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].high.system</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].high.code</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].start</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.bounds[x].end</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.count</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.period</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.when</t>
-  </si>
-  <si>
-    <t>dosage.timing.repeat.offset</t>
-  </si>
-  <si>
-    <t>dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].low</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].low.value</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].low.unit</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].low.system</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].low.code</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].high</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].high.value</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].high.unit</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].high.system</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].high.code</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].value</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].unit</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].system</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.dose[x].code</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x]</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].numerator</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].numerator.value</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].numerator.unit</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].numerator.system</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].numerator.code</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].denominator</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].denominator.value</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].denominator.unit</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].denominator.system</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].denominator.code</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].low</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].low.value</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].low.unit</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].low.system</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].low.code</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].high</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].high.value</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].high.unit</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].high.system</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].high.code</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].value</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].unit</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].system</t>
-  </si>
-  <si>
-    <t>dosage.doseAndRate.rate[x].code</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.numerator</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.numerator.value</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.numerator.unit</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.numerator.system</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.numerator.code</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.denominator</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.denominator.value</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.denominator.unit</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.denominator.system</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerPeriod.denominator.code</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerAdministration.value</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerAdministration.unit</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerAdministration.system</t>
-  </si>
-  <si>
-    <t>dosage.maxDosePerAdministration.code</t>
-  </si>
-  <si>
     <t>name/given</t>
   </si>
   <si>
@@ -2511,9 +1406,6 @@
     <t>dosageInstruction/doseAndRate/doseQuantity/code</t>
   </si>
   <si>
-    <t>dosageInstruction/doseAndRate/rateRatio/</t>
-  </si>
-  <si>
     <t>dosageInstruction/doseAndRate/rateRatio/numerator/value</t>
   </si>
   <si>
@@ -3807,9 +2699,6 @@
     <t>location/location/type</t>
   </si>
   <si>
-    <t>enc_location_reference</t>
-  </si>
-  <si>
     <t>enc_location_type</t>
   </si>
   <si>
@@ -3943,6 +2832,33 @@
   </si>
   <si>
     <t>serviceProvider/identifier/period/end</t>
+  </si>
+  <si>
+    <t>enc_location_id</t>
+  </si>
+  <si>
+    <t>pids_per_ward</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>date+time</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>onsetPeriod/end</t>
+  </si>
+  <si>
+    <t>dosageInstruction/doseAndRate/rateRatio</t>
   </si>
 </sst>
 </file>
@@ -4349,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1001</v>
+        <v>635</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -4442,7 +3358,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>1005</v>
+        <v>639</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -4469,25 +3385,25 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>1006</v>
+        <v>640</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>1018</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>1007</v>
+        <v>641</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>1018</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4536,16 +3452,16 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1002</v>
+        <v>636</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>1009</v>
+        <v>643</v>
       </c>
       <c r="H21" t="s">
-        <v>1011</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4557,10 +3473,10 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>1008</v>
+        <v>642</v>
       </c>
       <c r="H22" t="s">
-        <v>1012</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,13 +3488,13 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>1018</v>
+        <v>652</v>
       </c>
       <c r="G23" t="s">
-        <v>1010</v>
+        <v>644</v>
       </c>
       <c r="H23" t="s">
-        <v>1013</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4590,10 +3506,10 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>1010</v>
+        <v>644</v>
       </c>
       <c r="H24" t="s">
-        <v>1014</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4666,7 +3582,7 @@
         <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>1018</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4854,7 +3770,7 @@
         <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>1018</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5006,7 +3922,7 @@
         <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>1018</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,1698 +5331,6 @@
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17AB61C-1840-4DD4-A1D5-704875D476DD}">
-  <dimension ref="A1:A23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D29D3BF-7945-48A7-B4AA-47C9FFD568C1}">
-  <dimension ref="A1:A51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F248DF7-47C6-402A-906A-F0FAA219833F}">
-  <dimension ref="A1:A125"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>398</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A60EF9-8BDD-404E-A8FE-67FB0B3B509E}">
-  <dimension ref="A1:A126"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>493</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8118,24 +5342,24 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1017</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1015</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1016</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -8145,10 +5369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C81D82-401C-4A00-A387-FC66EC8E61F1}">
-  <dimension ref="A1:J524"/>
+  <dimension ref="A1:J527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8156,7 +5380,7 @@
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="69.85546875" customWidth="1"/>
@@ -8173,10 +5397,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1281</v>
+        <v>914</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>121</v>
@@ -8217,63 +5441,63 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1179</v>
+        <v>813</v>
       </c>
       <c r="C5" t="s">
-        <v>551</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1180</v>
+        <v>814</v>
       </c>
       <c r="C6" t="s">
-        <v>1042</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1181</v>
+        <v>815</v>
       </c>
       <c r="C7" t="s">
-        <v>1043</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1182</v>
+        <v>816</v>
       </c>
       <c r="C8" t="s">
-        <v>1044</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1183</v>
+        <v>817</v>
       </c>
       <c r="C9" t="s">
-        <v>1045</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1184</v>
+        <v>818</v>
       </c>
       <c r="C10" t="s">
-        <v>1041</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>505</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>504</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -8281,122 +5505,122 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>1185</v>
+        <v>819</v>
       </c>
       <c r="C13" t="s">
-        <v>1187</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1186</v>
+        <v>820</v>
       </c>
       <c r="C14" t="s">
-        <v>1188</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>1201</v>
+        <v>835</v>
       </c>
       <c r="C15" t="s">
-        <v>1189</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1202</v>
+        <v>836</v>
       </c>
       <c r="C16" t="s">
-        <v>1190</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1205</v>
+        <v>839</v>
       </c>
       <c r="C17" t="s">
-        <v>1191</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1206</v>
+        <v>840</v>
       </c>
       <c r="C18" t="s">
-        <v>1192</v>
+        <v>826</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1207</v>
+        <v>841</v>
       </c>
       <c r="C19" t="s">
-        <v>1193</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1208</v>
+        <v>842</v>
       </c>
       <c r="C20" t="s">
-        <v>1194</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1209</v>
+        <v>843</v>
       </c>
       <c r="C21" t="s">
-        <v>1195</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1204</v>
+        <v>838</v>
       </c>
       <c r="C22" t="s">
-        <v>1196</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1203</v>
+        <v>837</v>
       </c>
       <c r="C23" t="s">
-        <v>1197</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1210</v>
+        <v>844</v>
       </c>
       <c r="C24" t="s">
-        <v>1198</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1211</v>
+        <v>845</v>
       </c>
       <c r="C25" t="s">
-        <v>1199</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>1212</v>
+        <v>846</v>
       </c>
       <c r="C26" t="s">
-        <v>1200</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1213</v>
+        <v>847</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -8409,10 +5633,10 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>1022</v>
+        <v>656</v>
       </c>
       <c r="C29" t="s">
-        <v>1023</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -8441,10 +5665,10 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>1026</v>
+        <v>660</v>
       </c>
       <c r="C33" t="s">
-        <v>1027</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -8457,18 +5681,18 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>1028</v>
+        <v>662</v>
       </c>
       <c r="C35" t="s">
-        <v>1029</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>1030</v>
+        <v>664</v>
       </c>
       <c r="C36" t="s">
-        <v>1031</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -8481,15 +5705,15 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>1024</v>
+        <v>658</v>
       </c>
       <c r="C38" t="s">
-        <v>1025</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>1003</v>
+        <v>637</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -8497,7 +5721,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>1004</v>
+        <v>638</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -8522,12 +5746,12 @@
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>1018</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>1214</v>
+        <v>848</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -8535,71 +5759,71 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1220</v>
+        <v>854</v>
       </c>
       <c r="C44" t="s">
-        <v>1215</v>
+        <v>849</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>1221</v>
+        <v>855</v>
       </c>
       <c r="C45" t="s">
-        <v>1216</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>1222</v>
+        <v>856</v>
       </c>
       <c r="C46" t="s">
-        <v>1217</v>
+        <v>851</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>1223</v>
+        <v>857</v>
       </c>
       <c r="C47" t="s">
-        <v>1218</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>1224</v>
+        <v>858</v>
       </c>
       <c r="C48" t="s">
-        <v>1219</v>
+        <v>853</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>1225</v>
+        <v>859</v>
       </c>
       <c r="C49" t="s">
-        <v>1226</v>
+        <v>860</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>1228</v>
+        <v>862</v>
       </c>
       <c r="C50" t="s">
-        <v>509</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>1234</v>
+        <v>868</v>
       </c>
       <c r="C51" t="s">
-        <v>1231</v>
+        <v>865</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>1227</v>
+        <v>861</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -8607,271 +5831,271 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>1235</v>
+        <v>869</v>
       </c>
       <c r="C53" t="s">
-        <v>1232</v>
+        <v>866</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>1236</v>
+        <v>870</v>
       </c>
       <c r="C54" t="s">
-        <v>1233</v>
+        <v>867</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>1230</v>
+        <v>864</v>
       </c>
       <c r="C55" t="s">
-        <v>511</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>1237</v>
+        <v>871</v>
       </c>
       <c r="C56" t="s">
-        <v>1240</v>
+        <v>874</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>1229</v>
+        <v>863</v>
       </c>
       <c r="C57" t="s">
-        <v>510</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>1238</v>
+        <v>872</v>
       </c>
       <c r="C58" t="s">
-        <v>1241</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>1239</v>
+        <v>873</v>
       </c>
       <c r="C59" t="s">
-        <v>1242</v>
+        <v>876</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>1256</v>
+        <v>935</v>
       </c>
       <c r="C60" t="s">
-        <v>1254</v>
+        <v>888</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>1257</v>
+        <v>890</v>
       </c>
       <c r="C61" t="s">
-        <v>1255</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>1258</v>
+        <v>891</v>
       </c>
       <c r="C62" t="s">
-        <v>1243</v>
+        <v>877</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>1259</v>
+        <v>892</v>
       </c>
       <c r="C63" t="s">
-        <v>1244</v>
+        <v>878</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1260</v>
+        <v>893</v>
       </c>
       <c r="C64" t="s">
-        <v>1245</v>
+        <v>879</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1261</v>
+        <v>894</v>
       </c>
       <c r="C65" t="s">
-        <v>1246</v>
+        <v>880</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1262</v>
+        <v>895</v>
       </c>
       <c r="C66" t="s">
-        <v>1247</v>
+        <v>881</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>1263</v>
+        <v>896</v>
       </c>
       <c r="C67" t="s">
-        <v>1248</v>
+        <v>882</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>1264</v>
+        <v>897</v>
       </c>
       <c r="C68" t="s">
-        <v>1249</v>
+        <v>883</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>1265</v>
+        <v>898</v>
       </c>
       <c r="C69" t="s">
-        <v>1250</v>
+        <v>884</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1266</v>
+        <v>899</v>
       </c>
       <c r="C70" t="s">
-        <v>1251</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>1267</v>
+        <v>900</v>
       </c>
       <c r="C71" t="s">
-        <v>1252</v>
+        <v>886</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1268</v>
+        <v>901</v>
       </c>
       <c r="C72" t="s">
-        <v>1253</v>
+        <v>887</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>1274</v>
+        <v>907</v>
       </c>
       <c r="C73" t="s">
-        <v>1269</v>
+        <v>902</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>1275</v>
+        <v>908</v>
       </c>
       <c r="C74" t="s">
-        <v>1270</v>
+        <v>903</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>1276</v>
+        <v>909</v>
       </c>
       <c r="C75" t="s">
-        <v>1271</v>
+        <v>904</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>1277</v>
+        <v>910</v>
       </c>
       <c r="C76" t="s">
-        <v>1272</v>
+        <v>905</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>1278</v>
+        <v>911</v>
       </c>
       <c r="C77" t="s">
-        <v>1273</v>
+        <v>906</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>1032</v>
+        <v>666</v>
       </c>
       <c r="C78" t="s">
-        <v>1033</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>1282</v>
+        <v>915</v>
       </c>
       <c r="C79" t="s">
-        <v>1283</v>
+        <v>916</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>1284</v>
+        <v>917</v>
       </c>
       <c r="C80" t="s">
-        <v>1294</v>
+        <v>927</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>1285</v>
+        <v>918</v>
       </c>
       <c r="C81" t="s">
-        <v>1295</v>
+        <v>928</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>1286</v>
+        <v>919</v>
       </c>
       <c r="C82" t="s">
-        <v>1296</v>
+        <v>929</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>1287</v>
+        <v>920</v>
       </c>
       <c r="C83" t="s">
-        <v>1297</v>
+        <v>930</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>1288</v>
+        <v>921</v>
       </c>
       <c r="C84" t="s">
-        <v>1298</v>
+        <v>931</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>1289</v>
+        <v>922</v>
       </c>
       <c r="C85" t="s">
-        <v>1299</v>
+        <v>932</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>1290</v>
+        <v>923</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
@@ -8879,7 +6103,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>1291</v>
+        <v>924</v>
       </c>
       <c r="C87" t="s">
         <v>21</v>
@@ -8887,26 +6111,26 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>1292</v>
+        <v>925</v>
       </c>
       <c r="C88" t="s">
-        <v>1300</v>
+        <v>933</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1293</v>
+        <v>926</v>
       </c>
       <c r="C89" t="s">
-        <v>1301</v>
+        <v>934</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>1034</v>
+        <v>668</v>
       </c>
       <c r="C90" t="s">
-        <v>1035</v>
+        <v>669</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -8922,7 +6146,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -8930,66 +6154,66 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>501</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>503</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>1036</v>
+        <v>670</v>
       </c>
       <c r="C95" t="s">
-        <v>1042</v>
+        <v>676</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>1037</v>
+        <v>671</v>
       </c>
       <c r="C96" t="s">
-        <v>1043</v>
+        <v>677</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>1038</v>
+        <v>672</v>
       </c>
       <c r="C97" t="s">
-        <v>1044</v>
+        <v>678</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>1039</v>
+        <v>673</v>
       </c>
       <c r="C98" t="s">
-        <v>1045</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>1040</v>
+        <v>674</v>
       </c>
       <c r="C99" t="s">
-        <v>1041</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>496</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>494</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>497</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>495</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -9002,7 +6226,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>502</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
         <v>40</v>
@@ -9010,10 +6234,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>499</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>498</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -9029,7 +6253,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>1279</v>
+        <v>912</v>
       </c>
       <c r="C107" t="s">
         <v>45</v>
@@ -9037,7 +6261,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>1280</v>
+        <v>913</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -9045,162 +6269,162 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>1051</v>
+        <v>685</v>
       </c>
       <c r="C109" t="s">
-        <v>1047</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>1052</v>
+        <v>686</v>
       </c>
       <c r="C110" t="s">
-        <v>1048</v>
+        <v>682</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>1053</v>
+        <v>687</v>
       </c>
       <c r="C111" t="s">
-        <v>1049</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>1054</v>
+        <v>688</v>
       </c>
       <c r="C112" t="s">
-        <v>1050</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>1055</v>
+        <v>689</v>
       </c>
       <c r="C113" t="s">
-        <v>1046</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>1056</v>
+        <v>690</v>
       </c>
       <c r="C114" t="s">
-        <v>1061</v>
+        <v>695</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>1057</v>
+        <v>691</v>
       </c>
       <c r="C115" t="s">
-        <v>1062</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>1058</v>
+        <v>692</v>
       </c>
       <c r="C116" t="s">
-        <v>1063</v>
+        <v>697</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>1059</v>
+        <v>693</v>
       </c>
       <c r="C117" t="s">
-        <v>1064</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>1060</v>
+        <v>694</v>
       </c>
       <c r="C118" t="s">
-        <v>1065</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>1066</v>
+        <v>700</v>
       </c>
       <c r="C119" t="s">
-        <v>714</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>1067</v>
+        <v>701</v>
       </c>
       <c r="C120" t="s">
-        <v>715</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>1068</v>
+        <v>702</v>
       </c>
       <c r="C121" t="s">
-        <v>712</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>1069</v>
+        <v>703</v>
       </c>
       <c r="C122" t="s">
-        <v>713</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>1070</v>
+        <v>704</v>
       </c>
       <c r="C123" t="s">
-        <v>716</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>1071</v>
+        <v>705</v>
       </c>
       <c r="C124" t="s">
-        <v>1072</v>
+        <v>706</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>1073</v>
+        <v>707</v>
       </c>
       <c r="C125" t="s">
-        <v>1074</v>
+        <v>708</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>1075</v>
+        <v>709</v>
       </c>
       <c r="C126" t="s">
-        <v>1076</v>
+        <v>710</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>1077</v>
+        <v>711</v>
       </c>
       <c r="C127" t="s">
-        <v>1078</v>
+        <v>712</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>1079</v>
+        <v>713</v>
       </c>
       <c r="C128" t="s">
-        <v>1080</v>
+        <v>714</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
@@ -9213,7 +6437,7 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>1019</v>
+        <v>653</v>
       </c>
       <c r="C130" t="s">
         <v>59</v>
@@ -9229,7 +6453,7 @@
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>1020</v>
+        <v>654</v>
       </c>
       <c r="C132" t="s">
         <v>58</v>
@@ -9237,7 +6461,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>1021</v>
+        <v>655</v>
       </c>
       <c r="C133" t="s">
         <v>48</v>
@@ -9245,207 +6469,207 @@
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>1081</v>
+        <v>715</v>
       </c>
       <c r="C134" t="s">
-        <v>1086</v>
+        <v>720</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>1082</v>
+        <v>716</v>
       </c>
       <c r="C135" t="s">
-        <v>1087</v>
+        <v>721</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>1083</v>
+        <v>717</v>
       </c>
       <c r="C136" t="s">
-        <v>1088</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>1084</v>
+        <v>718</v>
       </c>
       <c r="C137" t="s">
-        <v>1089</v>
+        <v>723</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>1085</v>
+        <v>719</v>
       </c>
       <c r="C138" t="s">
-        <v>1090</v>
+        <v>724</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>1094</v>
+        <v>728</v>
       </c>
       <c r="C139" t="s">
-        <v>1092</v>
+        <v>726</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>1095</v>
+        <v>729</v>
       </c>
       <c r="C140" t="s">
-        <v>1092</v>
+        <v>942</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>1096</v>
+        <v>730</v>
       </c>
       <c r="C141" t="s">
-        <v>1093</v>
+        <v>727</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>1118</v>
+        <v>752</v>
       </c>
       <c r="C142" t="s">
-        <v>1097</v>
+        <v>731</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>1119</v>
+        <v>753</v>
       </c>
       <c r="C143" t="s">
-        <v>1124</v>
+        <v>758</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>1120</v>
+        <v>754</v>
       </c>
       <c r="C144" t="s">
-        <v>1125</v>
+        <v>759</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>1121</v>
+        <v>755</v>
       </c>
       <c r="C145" t="s">
-        <v>1126</v>
+        <v>760</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>1122</v>
+        <v>756</v>
       </c>
       <c r="C146" t="s">
-        <v>1127</v>
+        <v>761</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>1123</v>
+        <v>757</v>
       </c>
       <c r="C147" t="s">
-        <v>1128</v>
+        <v>762</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>1116</v>
+        <v>750</v>
       </c>
       <c r="C148" t="s">
-        <v>1098</v>
+        <v>732</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>1117</v>
+        <v>751</v>
       </c>
       <c r="C149" t="s">
-        <v>1099</v>
+        <v>733</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>1108</v>
+        <v>742</v>
       </c>
       <c r="C150" t="s">
-        <v>1100</v>
+        <v>734</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>1109</v>
+        <v>743</v>
       </c>
       <c r="C151" t="s">
-        <v>1101</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>1110</v>
+        <v>744</v>
       </c>
       <c r="C152" t="s">
-        <v>1102</v>
+        <v>736</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>1111</v>
+        <v>745</v>
       </c>
       <c r="C153" t="s">
-        <v>1103</v>
+        <v>737</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>1112</v>
+        <v>746</v>
       </c>
       <c r="C154" t="s">
-        <v>1104</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>1113</v>
+        <v>747</v>
       </c>
       <c r="C155" t="s">
-        <v>1105</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1114</v>
+        <v>748</v>
       </c>
       <c r="C156" t="s">
-        <v>1106</v>
+        <v>740</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>1115</v>
+        <v>749</v>
       </c>
       <c r="C157" t="s">
-        <v>1107</v>
+        <v>741</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>1130</v>
+        <v>764</v>
       </c>
       <c r="C158" t="s">
-        <v>1129</v>
+        <v>763</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>1091</v>
+        <v>725</v>
       </c>
       <c r="C159" t="s">
         <v>55</v>
@@ -9453,206 +6677,206 @@
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>1136</v>
+        <v>770</v>
       </c>
       <c r="C160" t="s">
-        <v>1131</v>
+        <v>765</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>1137</v>
+        <v>771</v>
       </c>
       <c r="C161" t="s">
-        <v>1132</v>
+        <v>766</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>1138</v>
+        <v>772</v>
       </c>
       <c r="C162" t="s">
-        <v>1133</v>
+        <v>767</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>1139</v>
+        <v>773</v>
       </c>
       <c r="C163" t="s">
-        <v>1134</v>
+        <v>768</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>1140</v>
+        <v>774</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>1135</v>
+        <v>769</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>1176</v>
+        <v>810</v>
       </c>
       <c r="C165" t="s">
-        <v>1151</v>
+        <v>785</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>1177</v>
+        <v>811</v>
       </c>
       <c r="C166" t="s">
-        <v>1152</v>
+        <v>786</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>1166</v>
+        <v>800</v>
       </c>
       <c r="C167" t="s">
-        <v>1154</v>
+        <v>788</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>1167</v>
+        <v>801</v>
       </c>
       <c r="C168" t="s">
-        <v>1155</v>
+        <v>789</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>1168</v>
+        <v>802</v>
       </c>
       <c r="C169" t="s">
-        <v>1156</v>
+        <v>790</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>1169</v>
+        <v>803</v>
       </c>
       <c r="C170" t="s">
-        <v>1157</v>
+        <v>791</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>1170</v>
+        <v>804</v>
       </c>
       <c r="C171" t="s">
-        <v>1158</v>
+        <v>792</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>1171</v>
+        <v>805</v>
       </c>
       <c r="C172" t="s">
-        <v>1159</v>
+        <v>793</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>1172</v>
+        <v>806</v>
       </c>
       <c r="C173" t="s">
-        <v>1160</v>
+        <v>794</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>1173</v>
+        <v>807</v>
       </c>
       <c r="C174" t="s">
-        <v>1161</v>
+        <v>795</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>1174</v>
+        <v>808</v>
       </c>
       <c r="C175" t="s">
-        <v>1162</v>
+        <v>796</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>1175</v>
+        <v>809</v>
       </c>
       <c r="C176" t="s">
-        <v>1163</v>
+        <v>797</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>1178</v>
+        <v>812</v>
       </c>
       <c r="C177" t="s">
-        <v>1153</v>
+        <v>787</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>1141</v>
+        <v>775</v>
       </c>
       <c r="C178" t="s">
-        <v>1142</v>
+        <v>776</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>1143</v>
+        <v>777</v>
       </c>
       <c r="C179" t="s">
-        <v>1144</v>
+        <v>778</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>1145</v>
+        <v>779</v>
       </c>
       <c r="C180" t="s">
-        <v>1146</v>
+        <v>780</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>1147</v>
+        <v>781</v>
       </c>
       <c r="C181" t="s">
-        <v>1148</v>
+        <v>782</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>1149</v>
+        <v>783</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>1150</v>
+        <v>784</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>1164</v>
+        <v>798</v>
       </c>
       <c r="C183" t="s">
-        <v>746</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>1165</v>
+        <v>799</v>
       </c>
       <c r="C184" t="s">
-        <v>745</v>
+        <v>380</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -9668,7 +6892,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>639</v>
+        <v>274</v>
       </c>
       <c r="C187" t="s">
         <v>46</v>
@@ -9676,7 +6900,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>640</v>
+        <v>275</v>
       </c>
       <c r="C188" t="s">
         <v>59</v>
@@ -9684,7 +6908,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>637</v>
+        <v>272</v>
       </c>
       <c r="C189" t="s">
         <v>47</v>
@@ -9692,7 +6916,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>638</v>
+        <v>273</v>
       </c>
       <c r="C190" t="s">
         <v>58</v>
@@ -9700,7 +6924,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>641</v>
+        <v>276</v>
       </c>
       <c r="C191" t="s">
         <v>48</v>
@@ -9708,130 +6932,130 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>636</v>
+        <v>271</v>
       </c>
       <c r="C192" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>644</v>
+        <v>279</v>
       </c>
       <c r="C193" t="s">
-        <v>645</v>
+        <v>280</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>646</v>
+        <v>281</v>
       </c>
       <c r="C194" t="s">
-        <v>647</v>
+        <v>282</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>650</v>
+        <v>285</v>
       </c>
       <c r="C195" t="s">
-        <v>651</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>642</v>
+        <v>277</v>
       </c>
       <c r="C196" t="s">
-        <v>643</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>648</v>
+        <v>283</v>
       </c>
       <c r="C197" t="s">
-        <v>649</v>
+        <v>284</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>652</v>
+        <v>287</v>
       </c>
       <c r="C198" t="s">
-        <v>666</v>
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>660</v>
+        <v>295</v>
       </c>
       <c r="C199" t="s">
-        <v>667</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>654</v>
+        <v>289</v>
       </c>
       <c r="C200" t="s">
-        <v>668</v>
+        <v>303</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>658</v>
+        <v>293</v>
       </c>
       <c r="C201" t="s">
-        <v>669</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>653</v>
+        <v>288</v>
       </c>
       <c r="C202" t="s">
-        <v>670</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>655</v>
+        <v>290</v>
       </c>
       <c r="C203" t="s">
-        <v>671</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>662</v>
+        <v>297</v>
       </c>
       <c r="C204" t="s">
-        <v>672</v>
+        <v>307</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>657</v>
+        <v>292</v>
       </c>
       <c r="C205" t="s">
-        <v>673</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>664</v>
+        <v>299</v>
       </c>
       <c r="C206" t="s">
-        <v>674</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>656</v>
+        <v>291</v>
       </c>
       <c r="C207" t="s">
-        <v>675</v>
+        <v>310</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
@@ -9844,10 +7068,10 @@
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>676</v>
+        <v>311</v>
       </c>
       <c r="C209" t="s">
-        <v>661</v>
+        <v>296</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
@@ -9860,10 +7084,10 @@
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>677</v>
+        <v>312</v>
       </c>
       <c r="C211" t="s">
-        <v>659</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
@@ -9884,10 +7108,10 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>678</v>
+        <v>313</v>
       </c>
       <c r="C214" t="s">
-        <v>663</v>
+        <v>298</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
@@ -9900,10 +7124,10 @@
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>679</v>
+        <v>314</v>
       </c>
       <c r="C216" t="s">
-        <v>665</v>
+        <v>300</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
@@ -9916,58 +7140,58 @@
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>685</v>
+        <v>320</v>
       </c>
       <c r="C218" t="s">
-        <v>680</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>686</v>
+        <v>321</v>
       </c>
       <c r="C219" t="s">
-        <v>682</v>
+        <v>317</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>687</v>
+        <v>322</v>
       </c>
       <c r="C220" t="s">
-        <v>681</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>688</v>
+        <v>323</v>
       </c>
       <c r="C221" t="s">
-        <v>683</v>
+        <v>318</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>689</v>
+        <v>324</v>
       </c>
       <c r="C222" t="s">
-        <v>684</v>
+        <v>319</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>691</v>
+        <v>326</v>
       </c>
       <c r="C223" t="s">
-        <v>690</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>693</v>
+        <v>328</v>
       </c>
       <c r="C224" t="s">
-        <v>692</v>
+        <v>327</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -10090,1242 +7314,1242 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>694</v>
+        <v>329</v>
       </c>
       <c r="C270" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>700</v>
+        <v>335</v>
       </c>
       <c r="C271" t="s">
-        <v>695</v>
+        <v>330</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>701</v>
+        <v>336</v>
       </c>
       <c r="C272" t="s">
-        <v>696</v>
+        <v>331</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>702</v>
+        <v>337</v>
       </c>
       <c r="C273" t="s">
-        <v>697</v>
+        <v>332</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>703</v>
+        <v>338</v>
       </c>
       <c r="C274" t="s">
-        <v>698</v>
+        <v>333</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>704</v>
+        <v>339</v>
       </c>
       <c r="C275" t="s">
-        <v>699</v>
+        <v>334</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>706</v>
+        <v>341</v>
       </c>
       <c r="C276" t="s">
-        <v>705</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>707</v>
+        <v>342</v>
       </c>
       <c r="C277" t="s">
-        <v>712</v>
+        <v>347</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>708</v>
+        <v>343</v>
       </c>
       <c r="C278" t="s">
-        <v>713</v>
+        <v>348</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>709</v>
+        <v>344</v>
       </c>
       <c r="C279" t="s">
-        <v>714</v>
+        <v>349</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>710</v>
+        <v>345</v>
       </c>
       <c r="C280" t="s">
-        <v>715</v>
+        <v>350</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>711</v>
+        <v>346</v>
       </c>
       <c r="C281" t="s">
-        <v>716</v>
+        <v>351</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>718</v>
+        <v>353</v>
       </c>
       <c r="C282" t="s">
-        <v>717</v>
+        <v>352</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>997</v>
+        <v>631</v>
       </c>
       <c r="C283" t="s">
-        <v>998</v>
+        <v>632</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>1000</v>
+        <v>634</v>
       </c>
       <c r="C284" t="s">
-        <v>999</v>
+        <v>633</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>724</v>
+        <v>359</v>
       </c>
       <c r="C285" t="s">
-        <v>719</v>
+        <v>354</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>725</v>
+        <v>360</v>
       </c>
       <c r="C286" t="s">
-        <v>720</v>
+        <v>355</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>726</v>
+        <v>361</v>
       </c>
       <c r="C287" t="s">
-        <v>721</v>
+        <v>356</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>727</v>
+        <v>362</v>
       </c>
       <c r="C288" t="s">
-        <v>722</v>
+        <v>357</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>728</v>
+        <v>363</v>
       </c>
       <c r="C289" t="s">
-        <v>723</v>
+        <v>358</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>996</v>
+        <v>630</v>
       </c>
       <c r="C290" t="s">
-        <v>995</v>
+        <v>629</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>729</v>
+        <v>364</v>
       </c>
       <c r="C291" t="s">
-        <v>292</v>
+        <v>128</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>730</v>
+        <v>365</v>
       </c>
       <c r="C292" t="s">
-        <v>506</v>
+        <v>141</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>731</v>
+        <v>366</v>
       </c>
       <c r="C293" t="s">
-        <v>736</v>
+        <v>371</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>732</v>
+        <v>367</v>
       </c>
       <c r="C294" t="s">
-        <v>737</v>
+        <v>372</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>733</v>
+        <v>368</v>
       </c>
       <c r="C295" t="s">
-        <v>738</v>
+        <v>373</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>734</v>
+        <v>369</v>
       </c>
       <c r="C296" t="s">
-        <v>739</v>
+        <v>374</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>735</v>
+        <v>370</v>
       </c>
       <c r="C297" t="s">
-        <v>740</v>
+        <v>375</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>742</v>
+        <v>377</v>
       </c>
       <c r="C298" t="s">
-        <v>741</v>
+        <v>376</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>743</v>
+        <v>378</v>
       </c>
       <c r="C299" t="s">
-        <v>744</v>
+        <v>379</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>747</v>
+        <v>382</v>
       </c>
       <c r="C300" t="s">
-        <v>745</v>
+        <v>380</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>748</v>
+        <v>383</v>
       </c>
       <c r="C301" t="s">
-        <v>746</v>
+        <v>381</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>879</v>
+        <v>513</v>
       </c>
       <c r="C302" t="s">
-        <v>749</v>
+        <v>384</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>880</v>
+        <v>514</v>
       </c>
       <c r="C303" t="s">
-        <v>750</v>
+        <v>385</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>881</v>
+        <v>515</v>
       </c>
       <c r="C304" t="s">
-        <v>751</v>
+        <v>386</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>882</v>
+        <v>516</v>
       </c>
       <c r="C305" t="s">
-        <v>771</v>
+        <v>406</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>883</v>
+        <v>517</v>
       </c>
       <c r="C306" t="s">
-        <v>772</v>
+        <v>407</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>884</v>
+        <v>518</v>
       </c>
       <c r="C307" t="s">
-        <v>773</v>
+        <v>408</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>885</v>
+        <v>519</v>
       </c>
       <c r="C308" t="s">
-        <v>774</v>
+        <v>409</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>886</v>
+        <v>520</v>
       </c>
       <c r="C309" t="s">
-        <v>775</v>
+        <v>410</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>887</v>
+        <v>521</v>
       </c>
       <c r="C310" t="s">
-        <v>776</v>
+        <v>411</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>888</v>
+        <v>522</v>
       </c>
       <c r="C311" t="s">
-        <v>777</v>
+        <v>412</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>889</v>
+        <v>523</v>
       </c>
       <c r="C312" t="s">
-        <v>778</v>
+        <v>413</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>890</v>
+        <v>524</v>
       </c>
       <c r="C313" t="s">
-        <v>779</v>
+        <v>414</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>891</v>
+        <v>525</v>
       </c>
       <c r="C314" t="s">
-        <v>780</v>
+        <v>415</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>892</v>
+        <v>526</v>
       </c>
       <c r="C315" t="s">
-        <v>781</v>
+        <v>416</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>893</v>
+        <v>527</v>
       </c>
       <c r="C316" t="s">
-        <v>782</v>
+        <v>417</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>894</v>
+        <v>528</v>
       </c>
       <c r="C317" t="s">
-        <v>783</v>
+        <v>418</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>895</v>
+        <v>529</v>
       </c>
       <c r="C318" t="s">
-        <v>784</v>
+        <v>419</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>896</v>
+        <v>530</v>
       </c>
       <c r="C319" t="s">
-        <v>785</v>
+        <v>420</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>897</v>
+        <v>531</v>
       </c>
       <c r="C320" t="s">
-        <v>752</v>
+        <v>387</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>898</v>
+        <v>532</v>
       </c>
       <c r="C321" t="s">
-        <v>753</v>
+        <v>388</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>899</v>
+        <v>533</v>
       </c>
       <c r="C322" t="s">
-        <v>754</v>
+        <v>389</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>900</v>
+        <v>534</v>
       </c>
       <c r="C323" t="s">
-        <v>755</v>
+        <v>390</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>901</v>
+        <v>535</v>
       </c>
       <c r="C324" t="s">
-        <v>756</v>
+        <v>391</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>902</v>
+        <v>536</v>
       </c>
       <c r="C325" t="s">
-        <v>757</v>
+        <v>392</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>903</v>
+        <v>537</v>
       </c>
       <c r="C326" t="s">
-        <v>758</v>
+        <v>393</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>904</v>
+        <v>538</v>
       </c>
       <c r="C327" t="s">
-        <v>759</v>
+        <v>394</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>905</v>
+        <v>539</v>
       </c>
       <c r="C328" t="s">
-        <v>760</v>
+        <v>395</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>906</v>
+        <v>540</v>
       </c>
       <c r="C329" t="s">
-        <v>761</v>
+        <v>396</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>907</v>
+        <v>541</v>
       </c>
       <c r="C330" t="s">
-        <v>762</v>
+        <v>397</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>908</v>
+        <v>542</v>
       </c>
       <c r="C331" t="s">
-        <v>763</v>
+        <v>398</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>909</v>
+        <v>543</v>
       </c>
       <c r="C332" t="s">
-        <v>764</v>
+        <v>399</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>910</v>
+        <v>544</v>
       </c>
       <c r="C333" t="s">
-        <v>765</v>
+        <v>400</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>911</v>
+        <v>545</v>
       </c>
       <c r="C334" t="s">
-        <v>767</v>
+        <v>402</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>912</v>
+        <v>546</v>
       </c>
       <c r="C335" t="s">
-        <v>768</v>
+        <v>403</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>913</v>
+        <v>547</v>
       </c>
       <c r="C336" t="s">
-        <v>766</v>
+        <v>401</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>914</v>
+        <v>548</v>
       </c>
       <c r="C337" t="s">
-        <v>769</v>
+        <v>404</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>915</v>
+        <v>549</v>
       </c>
       <c r="C338" t="s">
-        <v>770</v>
+        <v>405</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>916</v>
+        <v>550</v>
       </c>
       <c r="C339" t="s">
-        <v>786</v>
+        <v>421</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>917</v>
+        <v>551</v>
       </c>
       <c r="C340" t="s">
-        <v>787</v>
+        <v>422</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>918</v>
+        <v>552</v>
       </c>
       <c r="C341" t="s">
-        <v>788</v>
+        <v>423</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>919</v>
+        <v>553</v>
       </c>
       <c r="C342" t="s">
-        <v>789</v>
+        <v>424</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>920</v>
+        <v>554</v>
       </c>
       <c r="C343" t="s">
-        <v>790</v>
+        <v>425</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>921</v>
+        <v>555</v>
       </c>
       <c r="C344" t="s">
-        <v>791</v>
+        <v>426</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>922</v>
+        <v>556</v>
       </c>
       <c r="C345" t="s">
-        <v>792</v>
+        <v>427</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>923</v>
+        <v>557</v>
       </c>
       <c r="C346" t="s">
-        <v>793</v>
+        <v>428</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>924</v>
+        <v>558</v>
       </c>
       <c r="C347" t="s">
-        <v>794</v>
+        <v>429</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>925</v>
+        <v>559</v>
       </c>
       <c r="C348" t="s">
-        <v>795</v>
+        <v>430</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>926</v>
+        <v>560</v>
       </c>
       <c r="C349" t="s">
-        <v>796</v>
+        <v>431</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>927</v>
+        <v>561</v>
       </c>
       <c r="C350" t="s">
-        <v>797</v>
+        <v>432</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>928</v>
+        <v>562</v>
       </c>
       <c r="C351" t="s">
-        <v>798</v>
+        <v>433</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>929</v>
+        <v>563</v>
       </c>
       <c r="C352" t="s">
-        <v>799</v>
+        <v>434</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>930</v>
+        <v>564</v>
       </c>
       <c r="C353" t="s">
-        <v>800</v>
+        <v>435</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>931</v>
+        <v>565</v>
       </c>
       <c r="C354" t="s">
-        <v>801</v>
+        <v>436</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>932</v>
+        <v>566</v>
       </c>
       <c r="C355" t="s">
-        <v>802</v>
+        <v>437</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>933</v>
+        <v>567</v>
       </c>
       <c r="C356" t="s">
-        <v>803</v>
+        <v>438</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>934</v>
+        <v>568</v>
       </c>
       <c r="C357" t="s">
-        <v>804</v>
+        <v>439</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>935</v>
+        <v>569</v>
       </c>
       <c r="C358" t="s">
-        <v>805</v>
+        <v>440</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>936</v>
+        <v>570</v>
       </c>
       <c r="C359" t="s">
-        <v>806</v>
+        <v>441</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>937</v>
+        <v>571</v>
       </c>
       <c r="C360" t="s">
-        <v>807</v>
+        <v>442</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>938</v>
+        <v>572</v>
       </c>
       <c r="C361" t="s">
-        <v>808</v>
+        <v>443</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>939</v>
+        <v>573</v>
       </c>
       <c r="C362" t="s">
-        <v>809</v>
+        <v>444</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>940</v>
+        <v>574</v>
       </c>
       <c r="C363" t="s">
-        <v>810</v>
+        <v>445</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>941</v>
+        <v>575</v>
       </c>
       <c r="C364" t="s">
-        <v>811</v>
+        <v>446</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>942</v>
+        <v>576</v>
       </c>
       <c r="C365" t="s">
-        <v>812</v>
+        <v>447</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>943</v>
+        <v>577</v>
       </c>
       <c r="C366" t="s">
-        <v>813</v>
+        <v>448</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>944</v>
+        <v>578</v>
       </c>
       <c r="C367" t="s">
-        <v>814</v>
+        <v>449</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>945</v>
+        <v>579</v>
       </c>
       <c r="C368" t="s">
-        <v>815</v>
+        <v>450</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>946</v>
+        <v>580</v>
       </c>
       <c r="C369" t="s">
-        <v>816</v>
+        <v>451</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>947</v>
+        <v>581</v>
       </c>
       <c r="C370" t="s">
-        <v>817</v>
+        <v>452</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>948</v>
+        <v>582</v>
       </c>
       <c r="C371" t="s">
-        <v>818</v>
+        <v>453</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>949</v>
+        <v>583</v>
       </c>
       <c r="C372" t="s">
-        <v>819</v>
+        <v>454</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>950</v>
+        <v>584</v>
       </c>
       <c r="C373" t="s">
-        <v>820</v>
+        <v>455</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>951</v>
+        <v>585</v>
       </c>
       <c r="C374" t="s">
-        <v>821</v>
+        <v>456</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>952</v>
+        <v>586</v>
       </c>
       <c r="C375" t="s">
-        <v>822</v>
+        <v>457</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>953</v>
+        <v>587</v>
       </c>
       <c r="C376" t="s">
-        <v>823</v>
+        <v>458</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>954</v>
+        <v>588</v>
       </c>
       <c r="C377" t="s">
-        <v>824</v>
+        <v>943</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>955</v>
+        <v>589</v>
       </c>
       <c r="C378" t="s">
-        <v>825</v>
+        <v>459</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>956</v>
+        <v>590</v>
       </c>
       <c r="C379" t="s">
-        <v>826</v>
+        <v>460</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>957</v>
+        <v>591</v>
       </c>
       <c r="C380" t="s">
-        <v>827</v>
+        <v>461</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>958</v>
+        <v>592</v>
       </c>
       <c r="C381" t="s">
-        <v>828</v>
+        <v>462</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>959</v>
+        <v>593</v>
       </c>
       <c r="C382" t="s">
-        <v>829</v>
+        <v>463</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>960</v>
+        <v>594</v>
       </c>
       <c r="C383" t="s">
-        <v>830</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>961</v>
+        <v>595</v>
       </c>
       <c r="C384" t="s">
-        <v>831</v>
+        <v>465</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>962</v>
+        <v>596</v>
       </c>
       <c r="C385" t="s">
-        <v>832</v>
+        <v>466</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>963</v>
+        <v>597</v>
       </c>
       <c r="C386" t="s">
-        <v>833</v>
+        <v>467</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>964</v>
+        <v>598</v>
       </c>
       <c r="C387" t="s">
-        <v>834</v>
+        <v>468</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>965</v>
+        <v>599</v>
       </c>
       <c r="C388" t="s">
-        <v>835</v>
+        <v>469</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>966</v>
+        <v>600</v>
       </c>
       <c r="C389" t="s">
-        <v>836</v>
+        <v>470</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>967</v>
+        <v>601</v>
       </c>
       <c r="C390" t="s">
-        <v>837</v>
+        <v>471</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>968</v>
+        <v>602</v>
       </c>
       <c r="C391" t="s">
-        <v>838</v>
+        <v>472</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>969</v>
+        <v>603</v>
       </c>
       <c r="C392" t="s">
-        <v>839</v>
+        <v>473</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>970</v>
+        <v>604</v>
       </c>
       <c r="C393" t="s">
-        <v>840</v>
+        <v>474</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>971</v>
+        <v>605</v>
       </c>
       <c r="C394" t="s">
-        <v>841</v>
+        <v>475</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>972</v>
+        <v>606</v>
       </c>
       <c r="C395" t="s">
-        <v>842</v>
+        <v>476</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>973</v>
+        <v>607</v>
       </c>
       <c r="C396" t="s">
-        <v>843</v>
+        <v>477</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>974</v>
+        <v>608</v>
       </c>
       <c r="C397" t="s">
-        <v>844</v>
+        <v>478</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>975</v>
+        <v>609</v>
       </c>
       <c r="C398" t="s">
-        <v>845</v>
+        <v>479</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>976</v>
+        <v>610</v>
       </c>
       <c r="C399" t="s">
-        <v>846</v>
+        <v>480</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>977</v>
+        <v>611</v>
       </c>
       <c r="C400" t="s">
-        <v>847</v>
+        <v>481</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>978</v>
+        <v>612</v>
       </c>
       <c r="C401" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>979</v>
+        <v>613</v>
       </c>
       <c r="C402" t="s">
-        <v>849</v>
+        <v>483</v>
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>980</v>
+        <v>614</v>
       </c>
       <c r="C403" t="s">
-        <v>850</v>
+        <v>484</v>
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>981</v>
+        <v>615</v>
       </c>
       <c r="C404" t="s">
-        <v>851</v>
+        <v>485</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>982</v>
+        <v>616</v>
       </c>
       <c r="C405" t="s">
-        <v>852</v>
+        <v>486</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>983</v>
+        <v>617</v>
       </c>
       <c r="C406" t="s">
-        <v>853</v>
+        <v>487</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>984</v>
+        <v>618</v>
       </c>
       <c r="C407" t="s">
-        <v>854</v>
+        <v>488</v>
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>985</v>
+        <v>619</v>
       </c>
       <c r="C408" t="s">
-        <v>855</v>
+        <v>489</v>
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>986</v>
+        <v>620</v>
       </c>
       <c r="C409" t="s">
-        <v>856</v>
+        <v>490</v>
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>987</v>
+        <v>621</v>
       </c>
       <c r="C410" t="s">
-        <v>857</v>
+        <v>491</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>988</v>
+        <v>622</v>
       </c>
       <c r="C411" t="s">
-        <v>858</v>
+        <v>492</v>
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>989</v>
+        <v>623</v>
       </c>
       <c r="C412" t="s">
-        <v>859</v>
+        <v>493</v>
       </c>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>990</v>
+        <v>624</v>
       </c>
       <c r="C413" t="s">
-        <v>860</v>
+        <v>494</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>991</v>
+        <v>625</v>
       </c>
       <c r="C414" t="s">
-        <v>861</v>
+        <v>495</v>
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>992</v>
+        <v>626</v>
       </c>
       <c r="C415" t="s">
-        <v>862</v>
+        <v>496</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>993</v>
+        <v>627</v>
       </c>
       <c r="C416" t="s">
-        <v>863</v>
+        <v>497</v>
       </c>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>994</v>
+        <v>628</v>
       </c>
       <c r="C417" t="s">
-        <v>864</v>
+        <v>498</v>
       </c>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>865</v>
+        <v>499</v>
       </c>
       <c r="C418" t="s">
-        <v>870</v>
+        <v>504</v>
       </c>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>866</v>
+        <v>500</v>
       </c>
       <c r="C419" t="s">
-        <v>871</v>
+        <v>505</v>
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>867</v>
+        <v>501</v>
       </c>
       <c r="C420" t="s">
-        <v>872</v>
+        <v>506</v>
       </c>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>868</v>
+        <v>502</v>
       </c>
       <c r="C421" t="s">
-        <v>873</v>
+        <v>507</v>
       </c>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>869</v>
+        <v>503</v>
       </c>
       <c r="C422" t="s">
-        <v>874</v>
+        <v>508</v>
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>876</v>
+        <v>510</v>
       </c>
       <c r="C423" t="s">
-        <v>875</v>
+        <v>509</v>
       </c>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>878</v>
+        <v>512</v>
       </c>
       <c r="C424" t="s">
-        <v>877</v>
+        <v>511</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
@@ -11333,7 +8557,7 @@
         <v>105</v>
       </c>
       <c r="B441" t="s">
-        <v>592</v>
+        <v>227</v>
       </c>
       <c r="C441" t="s">
         <v>4</v>
@@ -11373,7 +8597,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>512</v>
+        <v>147</v>
       </c>
       <c r="C446" t="s">
         <v>58</v>
@@ -11382,7 +8606,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
-        <v>583</v>
+        <v>218</v>
       </c>
       <c r="C447" t="s">
         <v>48</v>
@@ -11390,7 +8614,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>584</v>
+        <v>219</v>
       </c>
       <c r="C448" t="s">
         <v>86</v>
@@ -11401,15 +8625,15 @@
         <v>115</v>
       </c>
       <c r="C449" t="s">
-        <v>515</v>
+        <v>150</v>
       </c>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>514</v>
+        <v>149</v>
       </c>
       <c r="C450" t="s">
-        <v>513</v>
+        <v>148</v>
       </c>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
@@ -11417,7 +8641,7 @@
         <v>119</v>
       </c>
       <c r="C451" t="s">
-        <v>517</v>
+        <v>152</v>
       </c>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
@@ -11425,20 +8649,20 @@
         <v>117</v>
       </c>
       <c r="C452" t="s">
-        <v>516</v>
+        <v>151</v>
       </c>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
-        <v>518</v>
+        <v>153</v>
       </c>
       <c r="C453" t="s">
-        <v>519</v>
+        <v>154</v>
       </c>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
-        <v>507</v>
+        <v>142</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -11446,274 +8670,274 @@
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
-        <v>508</v>
+        <v>143</v>
       </c>
       <c r="C455" t="s">
-        <v>503</v>
+        <v>138</v>
       </c>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>550</v>
+        <v>185</v>
       </c>
       <c r="C456" t="s">
-        <v>551</v>
+        <v>186</v>
       </c>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>564</v>
+        <v>199</v>
       </c>
       <c r="C457" t="s">
-        <v>520</v>
+        <v>155</v>
       </c>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>563</v>
+        <v>198</v>
       </c>
       <c r="C458" t="s">
-        <v>521</v>
+        <v>156</v>
       </c>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
-        <v>562</v>
+        <v>197</v>
       </c>
       <c r="C459" t="s">
-        <v>522</v>
+        <v>157</v>
       </c>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>557</v>
+        <v>192</v>
       </c>
       <c r="C460" t="s">
-        <v>523</v>
+        <v>158</v>
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
-        <v>554</v>
+        <v>189</v>
       </c>
       <c r="C461" t="s">
-        <v>524</v>
+        <v>159</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>565</v>
+        <v>200</v>
       </c>
       <c r="C462" t="s">
-        <v>525</v>
+        <v>160</v>
       </c>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>566</v>
+        <v>201</v>
       </c>
       <c r="C463" t="s">
-        <v>526</v>
+        <v>161</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
-        <v>567</v>
+        <v>202</v>
       </c>
       <c r="C464" t="s">
-        <v>527</v>
+        <v>162</v>
       </c>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>568</v>
+        <v>203</v>
       </c>
       <c r="C465" t="s">
-        <v>528</v>
+        <v>163</v>
       </c>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>569</v>
+        <v>204</v>
       </c>
       <c r="C466" t="s">
-        <v>530</v>
+        <v>165</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>570</v>
+        <v>205</v>
       </c>
       <c r="C467" t="s">
-        <v>531</v>
+        <v>166</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>571</v>
+        <v>206</v>
       </c>
       <c r="C468" t="s">
-        <v>532</v>
+        <v>167</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>572</v>
+        <v>207</v>
       </c>
       <c r="C469" t="s">
-        <v>533</v>
+        <v>168</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>555</v>
+        <v>190</v>
       </c>
       <c r="C470" t="s">
-        <v>529</v>
+        <v>164</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>573</v>
+        <v>208</v>
       </c>
       <c r="C471" t="s">
-        <v>534</v>
+        <v>169</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>574</v>
+        <v>209</v>
       </c>
       <c r="C472" t="s">
-        <v>535</v>
+        <v>170</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>575</v>
+        <v>210</v>
       </c>
       <c r="C473" t="s">
-        <v>536</v>
+        <v>171</v>
       </c>
     </row>
     <row r="474" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>576</v>
+        <v>211</v>
       </c>
       <c r="C474" t="s">
-        <v>537</v>
+        <v>172</v>
       </c>
     </row>
     <row r="475" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
-        <v>577</v>
+        <v>212</v>
       </c>
       <c r="C475" t="s">
-        <v>538</v>
+        <v>173</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>578</v>
+        <v>213</v>
       </c>
       <c r="C476" t="s">
-        <v>539</v>
+        <v>174</v>
       </c>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
-        <v>579</v>
+        <v>214</v>
       </c>
       <c r="C477" t="s">
-        <v>540</v>
+        <v>175</v>
       </c>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>580</v>
+        <v>215</v>
       </c>
       <c r="C478" t="s">
-        <v>541</v>
+        <v>176</v>
       </c>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
-        <v>558</v>
+        <v>193</v>
       </c>
       <c r="C479" t="s">
-        <v>542</v>
+        <v>177</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
-        <v>559</v>
+        <v>194</v>
       </c>
       <c r="C480" t="s">
-        <v>543</v>
+        <v>178</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>560</v>
+        <v>195</v>
       </c>
       <c r="C481" t="s">
-        <v>544</v>
+        <v>179</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
-        <v>561</v>
+        <v>196</v>
       </c>
       <c r="C482" t="s">
-        <v>545</v>
+        <v>180</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
-        <v>556</v>
+        <v>191</v>
       </c>
       <c r="C483" t="s">
-        <v>546</v>
+        <v>181</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
-        <v>581</v>
+        <v>216</v>
       </c>
       <c r="C484" t="s">
-        <v>547</v>
+        <v>182</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>582</v>
+        <v>217</v>
       </c>
       <c r="C485" t="s">
-        <v>548</v>
+        <v>183</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
-        <v>552</v>
+        <v>187</v>
       </c>
       <c r="C486" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
-        <v>553</v>
+        <v>188</v>
       </c>
       <c r="C487" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>549</v>
+        <v>184</v>
       </c>
       <c r="B489" t="s">
-        <v>593</v>
+        <v>228</v>
       </c>
       <c r="C489" t="s">
         <v>4</v>
@@ -11721,7 +8945,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
-        <v>591</v>
+        <v>226</v>
       </c>
       <c r="C490" t="s">
         <v>6</v>
@@ -11729,7 +8953,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
-        <v>585</v>
+        <v>220</v>
       </c>
       <c r="C491" t="s">
         <v>45</v>
@@ -11737,7 +8961,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="C492" t="s">
         <v>46</v>
@@ -11745,7 +8969,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
-        <v>587</v>
+        <v>222</v>
       </c>
       <c r="C493" t="s">
         <v>47</v>
@@ -11753,7 +8977,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>588</v>
+        <v>223</v>
       </c>
       <c r="C494" t="s">
         <v>58</v>
@@ -11761,7 +8985,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>589</v>
+        <v>224</v>
       </c>
       <c r="C495" t="s">
         <v>48</v>
@@ -11769,7 +8993,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
-        <v>590</v>
+        <v>225</v>
       </c>
       <c r="C496" t="s">
         <v>86</v>
@@ -11777,1288 +9001,255 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
-        <v>595</v>
-      </c>
-      <c r="C497" t="s">
-        <v>594</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D497" s="3"/>
+      <c r="E497" s="3"/>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
-        <v>597</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D498" s="3"/>
-      <c r="E498" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="C498" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
-        <v>598</v>
+        <v>235</v>
       </c>
       <c r="C499" t="s">
-        <v>599</v>
+        <v>127</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
-        <v>600</v>
+        <v>236</v>
       </c>
       <c r="C500" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
-        <v>601</v>
+        <v>230</v>
       </c>
       <c r="C501" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
-        <v>595</v>
+        <v>241</v>
       </c>
       <c r="C502" t="s">
-        <v>594</v>
+        <v>237</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
-        <v>606</v>
+        <v>242</v>
       </c>
       <c r="C503" t="s">
-        <v>602</v>
+        <v>238</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
-        <v>607</v>
+        <v>243</v>
       </c>
       <c r="C504" t="s">
-        <v>603</v>
+        <v>239</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
-        <v>608</v>
+        <v>244</v>
       </c>
       <c r="C505" t="s">
-        <v>604</v>
+        <v>240</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
-        <v>609</v>
+        <v>261</v>
       </c>
       <c r="C506" t="s">
-        <v>605</v>
+        <v>262</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
-        <v>626</v>
+        <v>247</v>
       </c>
       <c r="C507" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B508" t="s">
-        <v>612</v>
-      </c>
-      <c r="C508" t="s">
-        <v>611</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>245</v>
+      </c>
+      <c r="B509" t="s">
+        <v>248</v>
+      </c>
+      <c r="C509" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>610</v>
-      </c>
       <c r="B510" t="s">
-        <v>613</v>
+        <v>249</v>
       </c>
       <c r="C510" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
-        <v>614</v>
+        <v>250</v>
       </c>
       <c r="C511" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
-        <v>615</v>
+        <v>251</v>
       </c>
       <c r="C512" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
-        <v>616</v>
+        <v>252</v>
       </c>
       <c r="C513" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
-        <v>617</v>
+        <v>253</v>
       </c>
       <c r="C514" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
-        <v>618</v>
+        <v>263</v>
       </c>
       <c r="C515" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
-        <v>628</v>
+        <v>254</v>
       </c>
       <c r="C516" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
-        <v>619</v>
+        <v>255</v>
       </c>
       <c r="C517" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
-        <v>620</v>
+        <v>264</v>
       </c>
       <c r="C518" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
-        <v>629</v>
+        <v>265</v>
       </c>
       <c r="C519" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
-        <v>630</v>
+        <v>266</v>
       </c>
       <c r="C520" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
-        <v>631</v>
+        <v>267</v>
       </c>
       <c r="C521" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
-        <v>632</v>
+        <v>268</v>
       </c>
       <c r="C522" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
-        <v>633</v>
+        <v>270</v>
       </c>
       <c r="C523" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B524" t="s">
-        <v>635</v>
-      </c>
-      <c r="C524" t="s">
-        <v>634</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>936</v>
+      </c>
+      <c r="B525" t="s">
+        <v>937</v>
+      </c>
+      <c r="D525" t="s">
+        <v>939</v>
+      </c>
+      <c r="E525">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>938</v>
+      </c>
+      <c r="D526" t="s">
+        <v>940</v>
+      </c>
+      <c r="E526">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>941</v>
+      </c>
+      <c r="D527" t="s">
+        <v>940</v>
+      </c>
+      <c r="E527">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1B32F-D4FF-492F-A987-B37C7BE02E60}">
-  <dimension ref="A2:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF3CF83-79FE-4F58-B37D-A96FB6E98F35}">
-  <dimension ref="A1:A39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6062CEA4-64E9-47B1-A694-094E7C3F6193}">
-  <dimension ref="A1:A24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC3BB95-4FFE-4B53-8DF1-D69287ECE4F4}">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B4962F-FAB4-4715-BF20-56596F3257A8}">
-  <dimension ref="A1:A39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335CD3F9-83B2-4C8B-9E75-ADDBA2CE756B}">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>